--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>872.9596221982339</v>
+        <v>1018.591719353222</v>
       </c>
       <c r="AB2" t="n">
-        <v>1194.421867352097</v>
+        <v>1393.682127514236</v>
       </c>
       <c r="AC2" t="n">
-        <v>1080.427920713631</v>
+        <v>1260.671061309428</v>
       </c>
       <c r="AD2" t="n">
-        <v>872959.6221982338</v>
+        <v>1018591.719353222</v>
       </c>
       <c r="AE2" t="n">
-        <v>1194421.867352097</v>
+        <v>1393682.127514236</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.843680483026003e-07</v>
+        <v>1.326013103018353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1080427.920713631</v>
+        <v>1260671.061309428</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>630.4250558226427</v>
+        <v>734.4846465224302</v>
       </c>
       <c r="AB3" t="n">
-        <v>862.5753737671033</v>
+        <v>1004.954296547693</v>
       </c>
       <c r="AC3" t="n">
-        <v>780.2523907269107</v>
+        <v>909.0428689473945</v>
       </c>
       <c r="AD3" t="n">
-        <v>630425.0558226426</v>
+        <v>734484.6465224302</v>
       </c>
       <c r="AE3" t="n">
-        <v>862575.3737671033</v>
+        <v>1004954.296547693</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.007116062972036e-06</v>
+        <v>1.702579673727321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.12152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>780252.3907269107</v>
+        <v>909042.8689473944</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>562.5708869117759</v>
+        <v>666.6303881030125</v>
       </c>
       <c r="AB4" t="n">
-        <v>769.7343063485948</v>
+        <v>912.1131066596362</v>
       </c>
       <c r="AC4" t="n">
-        <v>696.2719444795682</v>
+        <v>825.0623119188251</v>
       </c>
       <c r="AD4" t="n">
-        <v>562570.8869117759</v>
+        <v>666630.3881030125</v>
       </c>
       <c r="AE4" t="n">
-        <v>769734.3063485948</v>
+        <v>912113.1066596361</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.090445247963117e-06</v>
+        <v>1.843451795432342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.58506944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>696271.9444795682</v>
+        <v>825062.3119188251</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>527.987126769336</v>
+        <v>621.7174846105634</v>
       </c>
       <c r="AB5" t="n">
-        <v>722.4152799938914</v>
+        <v>850.6612906838067</v>
       </c>
       <c r="AC5" t="n">
-        <v>653.4689795874872</v>
+        <v>769.4753710115633</v>
       </c>
       <c r="AD5" t="n">
-        <v>527987.1267693359</v>
+        <v>621717.4846105634</v>
       </c>
       <c r="AE5" t="n">
-        <v>722415.2799938915</v>
+        <v>850661.2906838066</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.138528755268894e-06</v>
+        <v>1.924739350253726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.79513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>653468.9795874872</v>
+        <v>769475.3710115633</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>514.3123691812347</v>
+        <v>607.8721348218698</v>
       </c>
       <c r="AB6" t="n">
-        <v>703.7048733741244</v>
+        <v>831.7174722891926</v>
       </c>
       <c r="AC6" t="n">
-        <v>636.5442679152901</v>
+        <v>752.3395240567152</v>
       </c>
       <c r="AD6" t="n">
-        <v>514312.3691812346</v>
+        <v>607872.1348218699</v>
       </c>
       <c r="AE6" t="n">
-        <v>703704.8733741244</v>
+        <v>831717.4722891926</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.167308835127159e-06</v>
+        <v>1.973393503212351e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.36111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>636544.2679152901</v>
+        <v>752339.5240567152</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>504.9561545528051</v>
+        <v>588.2721176980028</v>
       </c>
       <c r="AB7" t="n">
-        <v>690.9032877524494</v>
+        <v>804.899864168589</v>
       </c>
       <c r="AC7" t="n">
-        <v>624.9644476582093</v>
+        <v>728.0813508163926</v>
       </c>
       <c r="AD7" t="n">
-        <v>504956.1545528051</v>
+        <v>588272.1176980028</v>
       </c>
       <c r="AE7" t="n">
-        <v>690903.2877524494</v>
+        <v>804899.864168589</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.185841992797444e-06</v>
+        <v>2.004724725798846e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>624964.4476582094</v>
+        <v>728081.3508163926</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>486.7601884935092</v>
+        <v>580.4052054801649</v>
       </c>
       <c r="AB8" t="n">
-        <v>666.0067642407532</v>
+        <v>794.1360078084708</v>
       </c>
       <c r="AC8" t="n">
-        <v>602.4440134079794</v>
+        <v>718.3447818001168</v>
       </c>
       <c r="AD8" t="n">
-        <v>486760.1884935092</v>
+        <v>580405.205480165</v>
       </c>
       <c r="AE8" t="n">
-        <v>666006.7642407533</v>
+        <v>794136.0078084709</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.200313728005979e-06</v>
+        <v>2.029189912201399e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.88368055555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>602444.0134079794</v>
+        <v>718344.7818001169</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>480.5993142656627</v>
+        <v>574.2443312523184</v>
       </c>
       <c r="AB9" t="n">
-        <v>657.5771843236253</v>
+        <v>785.7064278913429</v>
       </c>
       <c r="AC9" t="n">
-        <v>594.8189407671523</v>
+        <v>710.71970915929</v>
       </c>
       <c r="AD9" t="n">
-        <v>480599.3142656627</v>
+        <v>574244.3312523183</v>
       </c>
       <c r="AE9" t="n">
-        <v>657577.1843236253</v>
+        <v>785706.4278913429</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.211307578462785e-06</v>
+        <v>2.047775561871725e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.72743055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>594818.9407671524</v>
+        <v>710719.70915929</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>475.9613021492314</v>
+        <v>569.6063191358872</v>
       </c>
       <c r="AB10" t="n">
-        <v>651.2312515312706</v>
+        <v>779.3604950989881</v>
       </c>
       <c r="AC10" t="n">
-        <v>589.0786548939274</v>
+        <v>704.9794232860647</v>
       </c>
       <c r="AD10" t="n">
-        <v>475961.3021492314</v>
+        <v>569606.3191358872</v>
       </c>
       <c r="AE10" t="n">
-        <v>651231.2515312706</v>
+        <v>779360.4950989881</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.217843200815027e-06</v>
+        <v>2.058824355730942e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>589078.6548939274</v>
+        <v>704979.4232860648</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>471.3645468944994</v>
+        <v>565.0095638811553</v>
       </c>
       <c r="AB11" t="n">
-        <v>644.9417681972169</v>
+        <v>773.0710117649344</v>
       </c>
       <c r="AC11" t="n">
-        <v>583.3894310219305</v>
+        <v>699.290199414068</v>
       </c>
       <c r="AD11" t="n">
-        <v>471364.5468944994</v>
+        <v>565009.5638811552</v>
       </c>
       <c r="AE11" t="n">
-        <v>644941.7681972169</v>
+        <v>773071.0117649344</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.225896021213325e-06</v>
+        <v>2.07243804816462e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.52777777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>583389.4310219305</v>
+        <v>699290.1994140679</v>
       </c>
     </row>
     <row r="12">
@@ -6787,28 +6787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>465.8081560256688</v>
+        <v>549.0387783162947</v>
       </c>
       <c r="AB12" t="n">
-        <v>637.3392690798181</v>
+        <v>751.2190783737602</v>
       </c>
       <c r="AC12" t="n">
-        <v>576.5125037501218</v>
+        <v>679.5237838763662</v>
       </c>
       <c r="AD12" t="n">
-        <v>465808.1560256688</v>
+        <v>549038.7783162948</v>
       </c>
       <c r="AE12" t="n">
-        <v>637339.2690798182</v>
+        <v>751219.0783737602</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.233995524628424e-06</v>
+        <v>2.086130660554436e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.42361111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>576512.5037501218</v>
+        <v>679523.7838763662</v>
       </c>
     </row>
     <row r="13">
@@ -6893,28 +6893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>462.4510450348694</v>
+        <v>545.6816673254954</v>
       </c>
       <c r="AB13" t="n">
-        <v>632.7459217169222</v>
+        <v>746.6257310108642</v>
       </c>
       <c r="AC13" t="n">
-        <v>572.3575390127371</v>
+        <v>675.3688191389814</v>
       </c>
       <c r="AD13" t="n">
-        <v>462451.0450348693</v>
+        <v>545681.6673254954</v>
       </c>
       <c r="AE13" t="n">
-        <v>632745.9217169222</v>
+        <v>746625.7310108643</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.238453752732989e-06</v>
+        <v>2.093667516365545e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>572357.5390127371</v>
+        <v>675368.8191389814</v>
       </c>
     </row>
     <row r="14">
@@ -6999,28 +6999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>459.8630386599424</v>
+        <v>543.0936609505684</v>
       </c>
       <c r="AB14" t="n">
-        <v>629.204897219964</v>
+        <v>743.0847065139059</v>
       </c>
       <c r="AC14" t="n">
-        <v>569.1544649239094</v>
+        <v>672.1657450501539</v>
       </c>
       <c r="AD14" t="n">
-        <v>459863.0386599425</v>
+        <v>543093.6609505684</v>
       </c>
       <c r="AE14" t="n">
-        <v>629204.897219964</v>
+        <v>743084.7065139059</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.240601171505869e-06</v>
+        <v>2.09729783434786e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH14" t="n">
-        <v>569154.4649239094</v>
+        <v>672165.7450501539</v>
       </c>
     </row>
     <row r="15">
@@ -7105,28 +7105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>455.5082724258049</v>
+        <v>538.7388947164309</v>
       </c>
       <c r="AB15" t="n">
-        <v>623.2465139396897</v>
+        <v>737.1263232336318</v>
       </c>
       <c r="AC15" t="n">
-        <v>563.7647413812612</v>
+        <v>666.7760215075056</v>
       </c>
       <c r="AD15" t="n">
-        <v>455508.2724258049</v>
+        <v>538738.8947164309</v>
       </c>
       <c r="AE15" t="n">
-        <v>623246.5139396897</v>
+        <v>737126.3232336318</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.24550288827005e-06</v>
+        <v>2.105584429742273e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.26736111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>563764.7413812611</v>
+        <v>666776.0215075056</v>
       </c>
     </row>
     <row r="16">
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>451.1157141050291</v>
+        <v>534.3463363956552</v>
       </c>
       <c r="AB16" t="n">
-        <v>617.236421859208</v>
+        <v>731.11623115315</v>
       </c>
       <c r="AC16" t="n">
-        <v>558.3282440537234</v>
+        <v>661.3395241799678</v>
       </c>
       <c r="AD16" t="n">
-        <v>451115.7141050291</v>
+        <v>534346.3363956552</v>
       </c>
       <c r="AE16" t="n">
-        <v>617236.421859208</v>
+        <v>731116.23115315</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.249377578664593e-06</v>
+        <v>2.112134786101666e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>558328.2440537234</v>
+        <v>661339.5241799678</v>
       </c>
     </row>
     <row r="17">
@@ -7317,28 +7317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>449.0295158068325</v>
+        <v>532.2601380974585</v>
       </c>
       <c r="AB17" t="n">
-        <v>614.3819933110422</v>
+        <v>728.2618026049843</v>
       </c>
       <c r="AC17" t="n">
-        <v>555.7462381599789</v>
+        <v>658.7575182862233</v>
       </c>
       <c r="AD17" t="n">
-        <v>449029.5158068325</v>
+        <v>532260.1380974585</v>
       </c>
       <c r="AE17" t="n">
-        <v>614381.9933110422</v>
+        <v>728261.8026049843</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.248583967378964e-06</v>
+        <v>2.110793146847332e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>555746.2381599789</v>
+        <v>658757.5182862233</v>
       </c>
     </row>
     <row r="18">
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>446.1313887734723</v>
+        <v>529.3620110640982</v>
       </c>
       <c r="AB18" t="n">
-        <v>610.4166480476575</v>
+        <v>724.2964573415995</v>
       </c>
       <c r="AC18" t="n">
-        <v>552.1593398831347</v>
+        <v>655.170620009379</v>
       </c>
       <c r="AD18" t="n">
-        <v>446131.3887734723</v>
+        <v>529362.0110640982</v>
       </c>
       <c r="AE18" t="n">
-        <v>610416.6480476576</v>
+        <v>724296.4573415995</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.253112220008731e-06</v>
+        <v>2.118448382592647e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH18" t="n">
-        <v>552159.3398831347</v>
+        <v>655170.620009379</v>
       </c>
     </row>
     <row r="19">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>442.1225311620941</v>
+        <v>525.3531534527201</v>
       </c>
       <c r="AB19" t="n">
-        <v>604.9315522054542</v>
+        <v>718.8113614993962</v>
       </c>
       <c r="AC19" t="n">
-        <v>547.1977338897308</v>
+        <v>650.2090140159752</v>
       </c>
       <c r="AD19" t="n">
-        <v>442122.5311620941</v>
+        <v>525353.1534527201</v>
       </c>
       <c r="AE19" t="n">
-        <v>604931.5522054542</v>
+        <v>718811.3614993962</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.253135561517132e-06</v>
+        <v>2.118487842570716e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH19" t="n">
-        <v>547197.7338897308</v>
+        <v>650209.0140159752</v>
       </c>
     </row>
     <row r="20">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>438.8009512946887</v>
+        <v>522.0315735853147</v>
       </c>
       <c r="AB20" t="n">
-        <v>600.3868200931084</v>
+        <v>714.2666293870504</v>
       </c>
       <c r="AC20" t="n">
-        <v>543.0867446316157</v>
+        <v>646.0980247578602</v>
       </c>
       <c r="AD20" t="n">
-        <v>438800.9512946887</v>
+        <v>522031.5735853147</v>
       </c>
       <c r="AE20" t="n">
-        <v>600386.8200931085</v>
+        <v>714266.6293870504</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.257733838672102e-06</v>
+        <v>2.126261458250236e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>543086.7446316157</v>
+        <v>646098.0247578602</v>
       </c>
     </row>
     <row r="21">
@@ -7741,28 +7741,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>436.5710973078705</v>
+        <v>519.8017195984964</v>
       </c>
       <c r="AB21" t="n">
-        <v>597.3358354941288</v>
+        <v>711.2156447880708</v>
       </c>
       <c r="AC21" t="n">
-        <v>540.326941720679</v>
+        <v>643.3382218469233</v>
       </c>
       <c r="AD21" t="n">
-        <v>436571.0973078705</v>
+        <v>519801.7195984964</v>
       </c>
       <c r="AE21" t="n">
-        <v>597335.8354941288</v>
+        <v>711215.6447880708</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.256683470794063e-06</v>
+        <v>2.124485759237148e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>540326.9417206789</v>
+        <v>643338.2218469232</v>
       </c>
     </row>
     <row r="22">
@@ -7847,28 +7847,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>435.4831974819592</v>
+        <v>518.7138197725853</v>
       </c>
       <c r="AB22" t="n">
-        <v>595.8473229575641</v>
+        <v>709.727132251506</v>
       </c>
       <c r="AC22" t="n">
-        <v>538.9804907314634</v>
+        <v>641.9917708577078</v>
       </c>
       <c r="AD22" t="n">
-        <v>435483.1974819592</v>
+        <v>518713.8197725853</v>
       </c>
       <c r="AE22" t="n">
-        <v>595847.322957564</v>
+        <v>709727.132251506</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.256963568894873e-06</v>
+        <v>2.124959278973972e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>538980.4907314634</v>
+        <v>641991.7708577078</v>
       </c>
     </row>
     <row r="23">
@@ -7953,28 +7953,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>433.8827481875913</v>
+        <v>517.1133704782173</v>
       </c>
       <c r="AB23" t="n">
-        <v>593.6575176261701</v>
+        <v>707.5373269201123</v>
       </c>
       <c r="AC23" t="n">
-        <v>536.9996773474867</v>
+        <v>640.0109574737311</v>
       </c>
       <c r="AD23" t="n">
-        <v>433882.7481875913</v>
+        <v>517113.3704782174</v>
       </c>
       <c r="AE23" t="n">
-        <v>593657.5176261702</v>
+        <v>707537.3269201122</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.261585187558244e-06</v>
+        <v>2.13277235463156e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.05902777777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>536999.6773474867</v>
+        <v>640010.9574737311</v>
       </c>
     </row>
   </sheetData>
@@ -8250,28 +8250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>704.4164219707011</v>
+        <v>825.3326438964305</v>
       </c>
       <c r="AB2" t="n">
-        <v>963.8136251995708</v>
+        <v>1129.256534485579</v>
       </c>
       <c r="AC2" t="n">
-        <v>871.8286055314419</v>
+        <v>1021.481875755775</v>
       </c>
       <c r="AD2" t="n">
-        <v>704416.4219707011</v>
+        <v>825332.6438964305</v>
       </c>
       <c r="AE2" t="n">
-        <v>963813.6251995708</v>
+        <v>1129256.534485579</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.063616679641763e-07</v>
+        <v>1.569628986107739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>871828.6055314419</v>
+        <v>1021481.875755775</v>
       </c>
     </row>
     <row r="3">
@@ -8356,28 +8356,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.5420220239896</v>
+        <v>629.3623596080193</v>
       </c>
       <c r="AB3" t="n">
-        <v>723.1745121615594</v>
+        <v>861.1213459234075</v>
       </c>
       <c r="AC3" t="n">
-        <v>654.155751702662</v>
+        <v>778.9371332598764</v>
       </c>
       <c r="AD3" t="n">
-        <v>528542.0220239896</v>
+        <v>629362.3596080194</v>
       </c>
       <c r="AE3" t="n">
-        <v>723174.5121615594</v>
+        <v>861121.3459234075</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.109240257431222e-06</v>
+        <v>1.920972302957622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.89756944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>654155.751702662</v>
+        <v>778937.1332598764</v>
       </c>
     </row>
     <row r="4">
@@ -8462,28 +8462,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.9983539432444</v>
+        <v>575.8134645379856</v>
       </c>
       <c r="AB4" t="n">
-        <v>663.5961444824264</v>
+        <v>787.8533852780675</v>
       </c>
       <c r="AC4" t="n">
-        <v>600.2634598160613</v>
+        <v>712.6617639462992</v>
       </c>
       <c r="AD4" t="n">
-        <v>484998.3539432444</v>
+        <v>575813.4645379856</v>
       </c>
       <c r="AE4" t="n">
-        <v>663596.1444824265</v>
+        <v>787853.3852780676</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.182838679318338e-06</v>
+        <v>2.048429388146678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.71701388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>600263.4598160613</v>
+        <v>712661.7639462992</v>
       </c>
     </row>
     <row r="5">
@@ -8568,28 +8568,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>463.3191468015023</v>
+        <v>544.0437790609344</v>
       </c>
       <c r="AB5" t="n">
-        <v>633.9336968519765</v>
+        <v>744.3847000287614</v>
       </c>
       <c r="AC5" t="n">
-        <v>573.4319545559546</v>
+        <v>673.3416690085038</v>
       </c>
       <c r="AD5" t="n">
-        <v>463319.1468015023</v>
+        <v>544043.7790609344</v>
       </c>
       <c r="AE5" t="n">
-        <v>633933.6968519764</v>
+        <v>744384.7000287614</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.23151795048777e-06</v>
+        <v>2.13273171220873e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.02256944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>573431.9545559546</v>
+        <v>673341.6690085038</v>
       </c>
     </row>
     <row r="6">
@@ -8674,28 +8674,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>447.2135265856938</v>
+        <v>537.9432963258633</v>
       </c>
       <c r="AB6" t="n">
-        <v>611.89727674289</v>
+        <v>736.0377504163336</v>
       </c>
       <c r="AC6" t="n">
-        <v>553.4986594537696</v>
+        <v>665.7913405520686</v>
       </c>
       <c r="AD6" t="n">
-        <v>447213.5265856938</v>
+        <v>537943.2963258633</v>
       </c>
       <c r="AE6" t="n">
-        <v>611897.27674289</v>
+        <v>736037.7504163336</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.24629558637849e-06</v>
+        <v>2.15832348915614e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.81423611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>553498.6594537696</v>
+        <v>665791.3405520687</v>
       </c>
     </row>
     <row r="7">
@@ -8780,28 +8780,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>438.6554764996133</v>
+        <v>529.3852462397829</v>
       </c>
       <c r="AB7" t="n">
-        <v>600.1877750605913</v>
+        <v>724.3282487340347</v>
       </c>
       <c r="AC7" t="n">
-        <v>542.9066961776406</v>
+        <v>655.1993772759397</v>
       </c>
       <c r="AD7" t="n">
-        <v>438655.4764996133</v>
+        <v>529385.2462397829</v>
       </c>
       <c r="AE7" t="n">
-        <v>600187.7750605913</v>
+        <v>724328.2487340347</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.263825919150815e-06</v>
+        <v>2.188682361809438e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.58854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>542906.6961776406</v>
+        <v>655199.3772759397</v>
       </c>
     </row>
     <row r="8">
@@ -8886,28 +8886,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>432.1613010012193</v>
+        <v>512.8005924060798</v>
       </c>
       <c r="AB8" t="n">
-        <v>591.302157640886</v>
+        <v>701.6363936954732</v>
       </c>
       <c r="AC8" t="n">
-        <v>534.8691096134295</v>
+        <v>634.6732010340399</v>
       </c>
       <c r="AD8" t="n">
-        <v>432161.3010012193</v>
+        <v>512800.5924060798</v>
       </c>
       <c r="AE8" t="n">
-        <v>591302.157640886</v>
+        <v>701636.3936954732</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.274136459224896e-06</v>
+        <v>2.206538062392025e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.44965277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>534869.1096134295</v>
+        <v>634673.20103404</v>
       </c>
     </row>
     <row r="9">
@@ -8992,28 +8992,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>426.5611475482513</v>
+        <v>507.2004389531118</v>
       </c>
       <c r="AB9" t="n">
-        <v>583.6397806252016</v>
+        <v>693.974016679789</v>
       </c>
       <c r="AC9" t="n">
-        <v>527.9380191059084</v>
+        <v>627.7421105265188</v>
       </c>
       <c r="AD9" t="n">
-        <v>426561.1475482513</v>
+        <v>507200.4389531118</v>
       </c>
       <c r="AE9" t="n">
-        <v>583639.7806252016</v>
+        <v>693974.0166797889</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.284205534660239e-06</v>
+        <v>2.223975596684622e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.31944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>527938.0191059085</v>
+        <v>627742.1105265188</v>
       </c>
     </row>
     <row r="10">
@@ -9098,28 +9098,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>421.567473368443</v>
+        <v>502.2067647733035</v>
       </c>
       <c r="AB10" t="n">
-        <v>576.8072153070314</v>
+        <v>687.1414513616187</v>
       </c>
       <c r="AC10" t="n">
-        <v>521.7575442321387</v>
+        <v>621.5616356527491</v>
       </c>
       <c r="AD10" t="n">
-        <v>421567.473368443</v>
+        <v>502206.7647733035</v>
       </c>
       <c r="AE10" t="n">
-        <v>576807.2153070314</v>
+        <v>687141.4513616187</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.291690938461095e-06</v>
+        <v>2.236938751674323e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>521757.5442321387</v>
+        <v>621561.6356527491</v>
       </c>
     </row>
     <row r="11">
@@ -9204,28 +9204,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>415.0201458805759</v>
+        <v>495.6594372854364</v>
       </c>
       <c r="AB11" t="n">
-        <v>567.8488729904288</v>
+        <v>678.1831090450161</v>
       </c>
       <c r="AC11" t="n">
-        <v>513.6541735331203</v>
+        <v>613.4582649537306</v>
       </c>
       <c r="AD11" t="n">
-        <v>415020.1458805759</v>
+        <v>495659.4372854364</v>
       </c>
       <c r="AE11" t="n">
-        <v>567848.8729904288</v>
+        <v>678183.1090450161</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.299731710931045e-06</v>
+        <v>2.250863689131001e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.12847222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>513654.1735331203</v>
+        <v>613458.2649537306</v>
       </c>
     </row>
     <row r="12">
@@ -9310,28 +9310,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>411.6222118379027</v>
+        <v>492.2615032427632</v>
       </c>
       <c r="AB12" t="n">
-        <v>563.1996697269733</v>
+        <v>673.5339057815604</v>
       </c>
       <c r="AC12" t="n">
-        <v>509.4486837039311</v>
+        <v>609.2527751245415</v>
       </c>
       <c r="AD12" t="n">
-        <v>411622.2118379027</v>
+        <v>492261.5032427632</v>
       </c>
       <c r="AE12" t="n">
-        <v>563199.6697269733</v>
+        <v>673533.9057815605</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.302919044162377e-06</v>
+        <v>2.256383484158874e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.08506944444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>509448.6837039311</v>
+        <v>609252.7751245415</v>
       </c>
     </row>
     <row r="13">
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>407.2897195999149</v>
+        <v>487.9290110047754</v>
       </c>
       <c r="AB13" t="n">
-        <v>557.2717627108904</v>
+        <v>667.6059987654777</v>
       </c>
       <c r="AC13" t="n">
-        <v>504.0865278135936</v>
+        <v>603.8906192342039</v>
       </c>
       <c r="AD13" t="n">
-        <v>407289.7195999149</v>
+        <v>487929.0110047754</v>
       </c>
       <c r="AE13" t="n">
-        <v>557271.7627108904</v>
+        <v>667605.9987654777</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.30695150362929e-06</v>
+        <v>2.263366861201713e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>504086.5278135936</v>
+        <v>603890.6192342038</v>
       </c>
     </row>
     <row r="14">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>390.0034995921903</v>
+        <v>480.6479284777881</v>
       </c>
       <c r="AB14" t="n">
-        <v>533.6199938821173</v>
+        <v>657.6437004333632</v>
       </c>
       <c r="AC14" t="n">
-        <v>482.6920506063727</v>
+        <v>594.8791086727329</v>
       </c>
       <c r="AD14" t="n">
-        <v>390003.4995921903</v>
+        <v>480647.9284777881</v>
       </c>
       <c r="AE14" t="n">
-        <v>533619.9938821173</v>
+        <v>657643.7004333632</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.313519341802943e-06</v>
+        <v>2.27474098428945e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>482692.0506063726</v>
+        <v>594879.1086727328</v>
       </c>
     </row>
     <row r="15">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>388.0955741443966</v>
+        <v>478.7400030299945</v>
       </c>
       <c r="AB15" t="n">
-        <v>531.0094861127158</v>
+        <v>655.0331926639616</v>
       </c>
       <c r="AC15" t="n">
-        <v>480.330686034612</v>
+        <v>592.5177441009723</v>
       </c>
       <c r="AD15" t="n">
-        <v>388095.5741443965</v>
+        <v>478740.0030299944</v>
       </c>
       <c r="AE15" t="n">
-        <v>531009.4861127158</v>
+        <v>655033.1926639616</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.313543488266816e-06</v>
+        <v>2.274782800918449e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>480330.686034612</v>
+        <v>592517.7441009723</v>
       </c>
     </row>
     <row r="16">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>388.1773209250508</v>
+        <v>478.8217498106487</v>
       </c>
       <c r="AB16" t="n">
-        <v>531.1213356644205</v>
+        <v>655.1450422156663</v>
       </c>
       <c r="AC16" t="n">
-        <v>480.4318608220838</v>
+        <v>592.6189188884441</v>
       </c>
       <c r="AD16" t="n">
-        <v>388177.3209250508</v>
+        <v>478821.7498106487</v>
       </c>
       <c r="AE16" t="n">
-        <v>531121.3356644205</v>
+        <v>655145.0422156663</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.313181291308711e-06</v>
+        <v>2.274155551483463e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.96354166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>480431.8608220838</v>
+        <v>592618.9188884441</v>
       </c>
     </row>
   </sheetData>
@@ -10031,28 +10031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.2947120566412</v>
+        <v>475.2477512250589</v>
       </c>
       <c r="AB2" t="n">
-        <v>538.1231759740256</v>
+        <v>650.2549396771728</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.7654553196849</v>
+        <v>588.1955208729224</v>
       </c>
       <c r="AD2" t="n">
-        <v>393294.7120566412</v>
+        <v>475247.7512250589</v>
       </c>
       <c r="AE2" t="n">
-        <v>538123.1759740256</v>
+        <v>650254.9396771728</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.279028645853639e-06</v>
+        <v>2.420197431770676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>486765.4553196849</v>
+        <v>588195.5208729224</v>
       </c>
     </row>
     <row r="3">
@@ -10137,28 +10137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.5239131234994</v>
+        <v>418.4768627833661</v>
       </c>
       <c r="AB3" t="n">
-        <v>460.4468643228145</v>
+        <v>572.5785055564132</v>
       </c>
       <c r="AC3" t="n">
-        <v>416.5024618330771</v>
+        <v>517.9324166050882</v>
       </c>
       <c r="AD3" t="n">
-        <v>336523.9131234994</v>
+        <v>418476.8627833661</v>
       </c>
       <c r="AE3" t="n">
-        <v>460446.8643228145</v>
+        <v>572578.5055564132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.409410352558626e-06</v>
+        <v>2.666907677659413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>416502.4618330771</v>
+        <v>517932.4166050882</v>
       </c>
     </row>
     <row r="4">
@@ -10243,28 +10243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.0843398233573</v>
+        <v>392.9220133790596</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.9535148707725</v>
+        <v>537.6132332010534</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.1558460831238</v>
+        <v>486.3041807692558</v>
       </c>
       <c r="AD4" t="n">
-        <v>320084.3398233573</v>
+        <v>392922.0133790596</v>
       </c>
       <c r="AE4" t="n">
-        <v>437953.5148707725</v>
+        <v>537613.2332010533</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.458017213252116e-06</v>
+        <v>2.758882317788216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>396155.8460831238</v>
+        <v>486304.1807692559</v>
       </c>
     </row>
     <row r="5">
@@ -10349,28 +10349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.884355418073</v>
+        <v>372.8072803197958</v>
       </c>
       <c r="AB5" t="n">
-        <v>410.3150050470455</v>
+        <v>510.0913680299756</v>
       </c>
       <c r="AC5" t="n">
-        <v>371.1551168460812</v>
+        <v>461.4089637829254</v>
       </c>
       <c r="AD5" t="n">
-        <v>299884.355418073</v>
+        <v>372807.2803197958</v>
       </c>
       <c r="AE5" t="n">
-        <v>410315.0050470455</v>
+        <v>510091.3680299756</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.478305997122514e-06</v>
+        <v>2.79727306280872e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.82465277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>371155.1168460812</v>
+        <v>461408.9637829254</v>
       </c>
     </row>
     <row r="6">
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>298.6684008757097</v>
+        <v>371.5913257774326</v>
       </c>
       <c r="AB6" t="n">
-        <v>408.6512823980558</v>
+        <v>508.427645380986</v>
       </c>
       <c r="AC6" t="n">
-        <v>369.6501775516616</v>
+        <v>459.9040244885059</v>
       </c>
       <c r="AD6" t="n">
-        <v>298668.4008757097</v>
+        <v>371591.3257774326</v>
       </c>
       <c r="AE6" t="n">
-        <v>408651.2823980558</v>
+        <v>508427.6453809859</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.483048129873098e-06</v>
+        <v>2.806246198431042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.77256944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>369650.1775516616</v>
+        <v>459904.0244885059</v>
       </c>
     </row>
   </sheetData>
@@ -10752,28 +10752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.6463779489443</v>
+        <v>579.6126857386689</v>
       </c>
       <c r="AB2" t="n">
-        <v>663.11455539894</v>
+        <v>793.0516473346524</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.8278329187883</v>
+        <v>717.3639111680102</v>
       </c>
       <c r="AD2" t="n">
-        <v>484646.3779489443</v>
+        <v>579612.6857386689</v>
       </c>
       <c r="AE2" t="n">
-        <v>663114.55539894</v>
+        <v>793051.6473346525</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.132099868138847e-06</v>
+        <v>2.062440096209095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>599827.8329187883</v>
+        <v>717363.9111680102</v>
       </c>
     </row>
     <row r="3">
@@ -10858,28 +10858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.185071873047</v>
+        <v>490.4841566832069</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.392090840485</v>
+        <v>671.1020618077794</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.4816877848549</v>
+        <v>607.0530229265036</v>
       </c>
       <c r="AD3" t="n">
-        <v>405185.071873047</v>
+        <v>490484.1566832069</v>
       </c>
       <c r="AE3" t="n">
-        <v>554392.0908404851</v>
+        <v>671102.0618077794</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292712670469748e-06</v>
+        <v>2.355041741005973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.30902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>501481.6877848549</v>
+        <v>607053.0229265036</v>
       </c>
     </row>
     <row r="4">
@@ -10964,28 +10964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.6194338184465</v>
+        <v>448.5072287042056</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.8343481596266</v>
+        <v>613.6673770555473</v>
       </c>
       <c r="AC4" t="n">
-        <v>461.1764735282728</v>
+        <v>555.0998238769382</v>
       </c>
       <c r="AD4" t="n">
-        <v>372619.4338184465</v>
+        <v>448507.2287042056</v>
       </c>
       <c r="AE4" t="n">
-        <v>509834.3481596266</v>
+        <v>613667.3770555473</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.358700276627203e-06</v>
+        <v>2.475256828581002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.46701388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>461176.4735282728</v>
+        <v>555099.8238769382</v>
       </c>
     </row>
     <row r="5">
@@ -11070,28 +11070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>364.510933961918</v>
+        <v>440.398728847677</v>
       </c>
       <c r="AB5" t="n">
-        <v>498.7399409341573</v>
+        <v>602.572969830078</v>
       </c>
       <c r="AC5" t="n">
-        <v>451.140900957304</v>
+        <v>545.0642513059694</v>
       </c>
       <c r="AD5" t="n">
-        <v>364510.933961918</v>
+        <v>440398.7288476771</v>
       </c>
       <c r="AE5" t="n">
-        <v>498739.9409341573</v>
+        <v>602572.9698300781</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.377027303181091e-06</v>
+        <v>2.508644690794223e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>451140.9009573041</v>
+        <v>545064.2513059694</v>
       </c>
     </row>
     <row r="6">
@@ -11176,28 +11176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>354.9154836699652</v>
+        <v>430.8032785557243</v>
       </c>
       <c r="AB6" t="n">
-        <v>485.6110225233172</v>
+        <v>589.4440514192379</v>
       </c>
       <c r="AC6" t="n">
-        <v>439.2649880930417</v>
+        <v>533.1883384417071</v>
       </c>
       <c r="AD6" t="n">
-        <v>354915.4836699652</v>
+        <v>430803.2785557242</v>
       </c>
       <c r="AE6" t="n">
-        <v>485611.0225233171</v>
+        <v>589444.0514192379</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.397055572706224e-06</v>
+        <v>2.545131848233988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>439264.9880930416</v>
+        <v>533188.3384417071</v>
       </c>
     </row>
     <row r="7">
@@ -11282,28 +11282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>337.7152489732765</v>
+        <v>423.0142442748854</v>
       </c>
       <c r="AB7" t="n">
-        <v>462.0769025905078</v>
+        <v>578.7867510882537</v>
       </c>
       <c r="AC7" t="n">
-        <v>417.9769315362749</v>
+        <v>523.548155896697</v>
       </c>
       <c r="AD7" t="n">
-        <v>337715.2489732765</v>
+        <v>423014.2442748854</v>
       </c>
       <c r="AE7" t="n">
-        <v>462076.9025905078</v>
+        <v>578786.7510882537</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.409041602730919e-06</v>
+        <v>2.566967791875546e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.87673611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>417976.931536275</v>
+        <v>523548.1558966971</v>
       </c>
     </row>
     <row r="8">
@@ -11388,28 +11388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>330.6506464740804</v>
+        <v>406.6236927058601</v>
       </c>
       <c r="AB8" t="n">
-        <v>452.4108017828419</v>
+        <v>556.360475331412</v>
       </c>
       <c r="AC8" t="n">
-        <v>409.233349823235</v>
+        <v>503.2622124226126</v>
       </c>
       <c r="AD8" t="n">
-        <v>330650.6464740804</v>
+        <v>406623.6927058601</v>
       </c>
       <c r="AE8" t="n">
-        <v>452410.8017828419</v>
+        <v>556360.4753314119</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.415047505947593e-06</v>
+        <v>2.577909243205617e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.81597222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>409233.349823235</v>
+        <v>503262.2124226126</v>
       </c>
     </row>
     <row r="9">
@@ -11494,28 +11494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>329.905751619909</v>
+        <v>405.8787978516887</v>
       </c>
       <c r="AB9" t="n">
-        <v>451.3916037809229</v>
+        <v>555.3412773294929</v>
       </c>
       <c r="AC9" t="n">
-        <v>408.3114226481657</v>
+        <v>502.3402852475434</v>
       </c>
       <c r="AD9" t="n">
-        <v>329905.751619909</v>
+        <v>405878.7978516886</v>
       </c>
       <c r="AE9" t="n">
-        <v>451391.6037809229</v>
+        <v>555341.2773294928</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.419197507741089e-06</v>
+        <v>2.58546964519764e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>408311.4226481657</v>
+        <v>502340.2852475434</v>
       </c>
     </row>
   </sheetData>
@@ -11791,28 +11791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.7586509201061</v>
+        <v>406.8119084231198</v>
       </c>
       <c r="AB2" t="n">
-        <v>448.453845880055</v>
+        <v>556.6180003792581</v>
       </c>
       <c r="AC2" t="n">
-        <v>405.6540402381875</v>
+        <v>503.4951596413309</v>
       </c>
       <c r="AD2" t="n">
-        <v>327758.6509201061</v>
+        <v>406811.9084231198</v>
       </c>
       <c r="AE2" t="n">
-        <v>448453.845880055</v>
+        <v>556618.0003792581</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401891641418796e-06</v>
+        <v>2.747255927038353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.32638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>405654.0402381875</v>
+        <v>503495.1596413309</v>
       </c>
     </row>
     <row r="3">
@@ -11897,28 +11897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.6322652155628</v>
+        <v>360.9682136060807</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.6558870585587</v>
+        <v>493.8926346495094</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.7041673112319</v>
+        <v>446.7562147812258</v>
       </c>
       <c r="AD3" t="n">
-        <v>290632.2652155628</v>
+        <v>360968.2136060807</v>
       </c>
       <c r="AE3" t="n">
-        <v>397655.8870585588</v>
+        <v>493892.6346495094</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.508257095019467e-06</v>
+        <v>2.955697945096775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.10243055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>359704.1673112318</v>
+        <v>446756.2147812258</v>
       </c>
     </row>
     <row r="4">
@@ -12003,28 +12003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.360427489805</v>
+        <v>343.7816272263435</v>
       </c>
       <c r="AB4" t="n">
-        <v>374.0237967024743</v>
+        <v>470.3771889460743</v>
       </c>
       <c r="AC4" t="n">
-        <v>338.327490490885</v>
+        <v>425.4850502115912</v>
       </c>
       <c r="AD4" t="n">
-        <v>273360.427489805</v>
+        <v>343781.6272263435</v>
       </c>
       <c r="AE4" t="n">
-        <v>374023.7967024743</v>
+        <v>470377.1889460743</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.534337758727919e-06</v>
+        <v>3.006807642763297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>338327.490490885</v>
+        <v>425485.0502115912</v>
       </c>
     </row>
   </sheetData>
@@ -12300,28 +12300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>740.6980899480549</v>
+        <v>872.8115926091209</v>
       </c>
       <c r="AB2" t="n">
-        <v>1013.45580396041</v>
+        <v>1194.219326737668</v>
       </c>
       <c r="AC2" t="n">
-        <v>916.7330044245823</v>
+        <v>1080.244710291176</v>
       </c>
       <c r="AD2" t="n">
-        <v>740698.0899480549</v>
+        <v>872811.5926091209</v>
       </c>
       <c r="AE2" t="n">
-        <v>1013455.80396041</v>
+        <v>1194219.326737668</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.723759635769763e-07</v>
+        <v>1.500906451025092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.81076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>916733.0044245824</v>
+        <v>1080244.710291176</v>
       </c>
     </row>
     <row r="3">
@@ -12406,28 +12406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>558.3421224449304</v>
+        <v>659.9285951444991</v>
       </c>
       <c r="AB3" t="n">
-        <v>763.9483242451352</v>
+        <v>902.9434178715595</v>
       </c>
       <c r="AC3" t="n">
-        <v>691.038168387386</v>
+        <v>816.7677653589434</v>
       </c>
       <c r="AD3" t="n">
-        <v>558342.1224449304</v>
+        <v>659928.5951444991</v>
       </c>
       <c r="AE3" t="n">
-        <v>763948.3242451352</v>
+        <v>902943.4178715595</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.082501411683445e-06</v>
+        <v>1.862423335665517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>691038.168387386</v>
+        <v>816767.7653589434</v>
       </c>
     </row>
     <row r="4">
@@ -12512,28 +12512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>501.6984941513027</v>
+        <v>603.2848773423204</v>
       </c>
       <c r="AB4" t="n">
-        <v>686.44601307328</v>
+        <v>825.4409842301558</v>
       </c>
       <c r="AC4" t="n">
-        <v>620.9325690185956</v>
+        <v>746.6620552089265</v>
       </c>
       <c r="AD4" t="n">
-        <v>501698.4941513027</v>
+        <v>603284.8773423204</v>
       </c>
       <c r="AE4" t="n">
-        <v>686446.01307328</v>
+        <v>825440.9842301558</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158717053662616e-06</v>
+        <v>1.993550915392171e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.92534722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>620932.5690185956</v>
+        <v>746662.0552089266</v>
       </c>
     </row>
     <row r="5">
@@ -12618,28 +12618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>480.9499551631813</v>
+        <v>572.3607213727338</v>
       </c>
       <c r="AB5" t="n">
-        <v>658.0569466687948</v>
+        <v>783.1291897550922</v>
       </c>
       <c r="AC5" t="n">
-        <v>595.2529152674497</v>
+        <v>708.3884390135864</v>
       </c>
       <c r="AD5" t="n">
-        <v>480949.9551631813</v>
+        <v>572360.7213727338</v>
       </c>
       <c r="AE5" t="n">
-        <v>658056.9466687948</v>
+        <v>783129.1897550921</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.203369608743663e-06</v>
+        <v>2.070374797266563e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>595252.9152674497</v>
+        <v>708388.4390135864</v>
       </c>
     </row>
     <row r="6">
@@ -12724,28 +12724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>461.0958697927933</v>
+        <v>552.5918873483665</v>
       </c>
       <c r="AB6" t="n">
-        <v>630.8917111646016</v>
+        <v>756.0805989035482</v>
       </c>
       <c r="AC6" t="n">
-        <v>570.6802917131291</v>
+        <v>683.9213277099781</v>
       </c>
       <c r="AD6" t="n">
-        <v>461095.8697927934</v>
+        <v>552591.8873483666</v>
       </c>
       <c r="AE6" t="n">
-        <v>630891.7111646016</v>
+        <v>756080.5989035482</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.225624097610423e-06</v>
+        <v>2.108663227139652e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>570680.2917131291</v>
+        <v>683921.3277099781</v>
       </c>
     </row>
     <row r="7">
@@ -12830,28 +12830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>452.9907995675184</v>
+        <v>544.4868171230916</v>
       </c>
       <c r="AB7" t="n">
-        <v>619.8019965119181</v>
+        <v>744.9908842508646</v>
       </c>
       <c r="AC7" t="n">
-        <v>560.6489638623856</v>
+        <v>673.8899998592344</v>
       </c>
       <c r="AD7" t="n">
-        <v>452990.7995675184</v>
+        <v>544486.8171230915</v>
       </c>
       <c r="AE7" t="n">
-        <v>619801.9965119181</v>
+        <v>744990.8842508646</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.242685872408272e-06</v>
+        <v>2.138017690042354e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH7" t="n">
-        <v>560648.9638623856</v>
+        <v>673889.9998592344</v>
       </c>
     </row>
     <row r="8">
@@ -12936,28 +12936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>445.0445542504391</v>
+        <v>536.5405718060122</v>
       </c>
       <c r="AB8" t="n">
-        <v>608.9295931054885</v>
+        <v>734.1184808444349</v>
       </c>
       <c r="AC8" t="n">
-        <v>550.8142073775514</v>
+        <v>664.0552433744003</v>
       </c>
       <c r="AD8" t="n">
-        <v>445044.5542504391</v>
+        <v>536540.5718060122</v>
       </c>
       <c r="AE8" t="n">
-        <v>608929.5931054885</v>
+        <v>734118.4808444349</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.258096507709555e-06</v>
+        <v>2.1645313984706e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>550814.2073775514</v>
+        <v>664055.2433744003</v>
       </c>
     </row>
     <row r="9">
@@ -13042,28 +13042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>440.94685698018</v>
+        <v>522.2672575542881</v>
       </c>
       <c r="AB9" t="n">
-        <v>603.322942922675</v>
+        <v>714.5891025910428</v>
       </c>
       <c r="AC9" t="n">
-        <v>545.7426480192028</v>
+        <v>646.3897215718573</v>
       </c>
       <c r="AD9" t="n">
-        <v>440946.85698018</v>
+        <v>522267.2575542881</v>
       </c>
       <c r="AE9" t="n">
-        <v>603322.9429226751</v>
+        <v>714589.1025910428</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.263265292220544e-06</v>
+        <v>2.173424195086286e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.44097222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>545742.6480192028</v>
+        <v>646389.7215718573</v>
       </c>
     </row>
     <row r="10">
@@ -13148,28 +13148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>435.2217725807287</v>
+        <v>516.5421731548367</v>
       </c>
       <c r="AB10" t="n">
-        <v>595.4896298744476</v>
+        <v>706.7557895428154</v>
       </c>
       <c r="AC10" t="n">
-        <v>538.6569353741744</v>
+        <v>639.3040089268288</v>
       </c>
       <c r="AD10" t="n">
-        <v>435221.7725807287</v>
+        <v>516542.1731548368</v>
       </c>
       <c r="AE10" t="n">
-        <v>595489.6298744476</v>
+        <v>706755.7895428154</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.271616707935059e-06</v>
+        <v>2.187792648877369e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.33680555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>538656.9353741744</v>
+        <v>639304.0089268289</v>
       </c>
     </row>
     <row r="11">
@@ -13254,28 +13254,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>429.3353674149627</v>
+        <v>510.6557679890709</v>
       </c>
       <c r="AB11" t="n">
-        <v>587.4355906367788</v>
+        <v>698.7017503051464</v>
       </c>
       <c r="AC11" t="n">
-        <v>531.3715623374336</v>
+        <v>632.018635890088</v>
       </c>
       <c r="AD11" t="n">
-        <v>429335.3674149627</v>
+        <v>510655.7679890709</v>
       </c>
       <c r="AE11" t="n">
-        <v>587435.5906367787</v>
+        <v>698701.7503051464</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.279704898512441e-06</v>
+        <v>2.201708228766729e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.23263888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>531371.5623374336</v>
+        <v>632018.635890088</v>
       </c>
     </row>
     <row r="12">
@@ -13360,28 +13360,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>424.3023419585653</v>
+        <v>505.6227425326733</v>
       </c>
       <c r="AB12" t="n">
-        <v>580.5491831659235</v>
+        <v>691.8153428342913</v>
       </c>
       <c r="AC12" t="n">
-        <v>525.1423839304631</v>
+        <v>625.7894574831178</v>
       </c>
       <c r="AD12" t="n">
-        <v>424302.3419585652</v>
+        <v>505622.7425326733</v>
       </c>
       <c r="AE12" t="n">
-        <v>580549.1831659236</v>
+        <v>691815.3428342913</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.286285526940784e-06</v>
+        <v>2.213030076309847e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>525142.3839304631</v>
+        <v>625789.4574831177</v>
       </c>
     </row>
     <row r="13">
@@ -13466,28 +13466,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>421.3444076654076</v>
+        <v>502.6648082395157</v>
       </c>
       <c r="AB13" t="n">
-        <v>576.5020069711741</v>
+        <v>687.7681666395417</v>
       </c>
       <c r="AC13" t="n">
-        <v>521.4814645514931</v>
+        <v>622.1285381041477</v>
       </c>
       <c r="AD13" t="n">
-        <v>421344.4076654076</v>
+        <v>502664.8082395156</v>
       </c>
       <c r="AE13" t="n">
-        <v>576502.006971174</v>
+        <v>687768.1666395417</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.285854794898201e-06</v>
+        <v>2.212289009925206e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.15451388888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>521481.4645514931</v>
+        <v>622128.5381041477</v>
       </c>
     </row>
     <row r="14">
@@ -13572,28 +13572,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>417.053457118304</v>
+        <v>498.3738576924122</v>
       </c>
       <c r="AB14" t="n">
-        <v>570.6309391292493</v>
+        <v>681.897098797617</v>
       </c>
       <c r="AC14" t="n">
-        <v>516.1707231843061</v>
+        <v>616.8177967369605</v>
       </c>
       <c r="AD14" t="n">
-        <v>417053.457118304</v>
+        <v>498373.8576924122</v>
       </c>
       <c r="AE14" t="n">
-        <v>570630.9391292493</v>
+        <v>681897.098797617</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.289994608418577e-06</v>
+        <v>2.219411481288695e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.10243055555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>516170.7231843061</v>
+        <v>616817.7967369605</v>
       </c>
     </row>
     <row r="15">
@@ -13678,28 +13678,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>412.7626280298687</v>
+        <v>494.0830286039767</v>
       </c>
       <c r="AB15" t="n">
-        <v>564.7600374724326</v>
+        <v>676.0261971408003</v>
       </c>
       <c r="AC15" t="n">
-        <v>510.8601321417537</v>
+        <v>611.5072056944084</v>
       </c>
       <c r="AD15" t="n">
-        <v>412762.6280298687</v>
+        <v>494083.0286039768</v>
       </c>
       <c r="AE15" t="n">
-        <v>564760.0374724326</v>
+        <v>676026.1971408003</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.293368676085473e-06</v>
+        <v>2.225216501301711e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.05902777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>510860.1321417537</v>
+        <v>611507.2056944084</v>
       </c>
     </row>
     <row r="16">
@@ -13784,28 +13784,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>409.1303934748178</v>
+        <v>490.4507940489258</v>
       </c>
       <c r="AB16" t="n">
-        <v>559.7902539113327</v>
+        <v>671.0564135797003</v>
       </c>
       <c r="AC16" t="n">
-        <v>506.3646577485902</v>
+        <v>607.0117313012448</v>
       </c>
       <c r="AD16" t="n">
-        <v>409130.3934748177</v>
+        <v>490450.7940489259</v>
       </c>
       <c r="AE16" t="n">
-        <v>559790.2539113327</v>
+        <v>671056.4135797004</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.297819573858825e-06</v>
+        <v>2.232874187276329e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.00694444444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>506364.6577485902</v>
+        <v>607011.7313012448</v>
       </c>
     </row>
     <row r="17">
@@ -13890,28 +13890,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>407.0846730201079</v>
+        <v>488.405073594216</v>
       </c>
       <c r="AB17" t="n">
-        <v>556.9912089343818</v>
+        <v>668.2573686027495</v>
       </c>
       <c r="AC17" t="n">
-        <v>503.8327496957552</v>
+        <v>604.4798232484096</v>
       </c>
       <c r="AD17" t="n">
-        <v>407084.6730201079</v>
+        <v>488405.073594216</v>
       </c>
       <c r="AE17" t="n">
-        <v>556991.2089343818</v>
+        <v>668257.3686027494</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.297005968889502e-06</v>
+        <v>2.231474395216453e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH17" t="n">
-        <v>503832.7496957552</v>
+        <v>604479.8232484097</v>
       </c>
     </row>
     <row r="18">
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>407.0361546499719</v>
+        <v>488.3565552240801</v>
       </c>
       <c r="AB18" t="n">
-        <v>556.9248239598824</v>
+        <v>668.1909836282501</v>
       </c>
       <c r="AC18" t="n">
-        <v>503.7727004100501</v>
+        <v>604.4197739627047</v>
       </c>
       <c r="AD18" t="n">
-        <v>407036.1546499719</v>
+        <v>488356.5552240801</v>
       </c>
       <c r="AE18" t="n">
-        <v>556924.8239598824</v>
+        <v>668190.9836282502</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.295833420551361e-06</v>
+        <v>2.229457047836043e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.03298611111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>503772.7004100501</v>
+        <v>604419.7739627047</v>
       </c>
     </row>
     <row r="19">
@@ -14102,28 +14102,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>408.2592480144616</v>
+        <v>489.5796485885697</v>
       </c>
       <c r="AB19" t="n">
-        <v>558.5983142602482</v>
+        <v>669.8644739286159</v>
       </c>
       <c r="AC19" t="n">
-        <v>505.2864751449073</v>
+        <v>605.9335486975619</v>
       </c>
       <c r="AD19" t="n">
-        <v>408259.2480144616</v>
+        <v>489579.6485885697</v>
       </c>
       <c r="AE19" t="n">
-        <v>558598.3142602482</v>
+        <v>669864.4739286159</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.295737702319676e-06</v>
+        <v>2.229292366417234e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.03298611111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>505286.4751449074</v>
+        <v>605933.548697562</v>
       </c>
     </row>
   </sheetData>
@@ -14399,28 +14399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.3816845598089</v>
+        <v>365.8536230515288</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.5765433167452</v>
+        <v>500.577067381825</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.918711814251</v>
+        <v>452.8026946352294</v>
       </c>
       <c r="AD2" t="n">
-        <v>288381.6845598089</v>
+        <v>365853.6230515288</v>
       </c>
       <c r="AE2" t="n">
-        <v>394576.5433167453</v>
+        <v>500577.067381825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.476138009395739e-06</v>
+        <v>2.959155377837887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.84027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>356918.711814251</v>
+        <v>452802.6946352294</v>
       </c>
     </row>
     <row r="3">
@@ -14505,28 +14505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.0754375923015</v>
+        <v>335.4620352294497</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.1101991985473</v>
+        <v>458.9939561414292</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.4098573803144</v>
+        <v>415.1882171693539</v>
       </c>
       <c r="AD3" t="n">
-        <v>258075.4375923015</v>
+        <v>335462.0352294497</v>
       </c>
       <c r="AE3" t="n">
-        <v>353110.1991985473</v>
+        <v>458993.9561414293</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.560934685034905e-06</v>
+        <v>3.129143913559644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>319409.8573803144</v>
+        <v>415188.2171693539</v>
       </c>
     </row>
     <row r="4">
@@ -14611,28 +14611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>259.6161016694406</v>
+        <v>337.002699306589</v>
       </c>
       <c r="AB4" t="n">
-        <v>355.2182037581912</v>
+        <v>461.1019607010732</v>
       </c>
       <c r="AC4" t="n">
-        <v>321.3166769433888</v>
+        <v>417.0950367324284</v>
       </c>
       <c r="AD4" t="n">
-        <v>259616.1016694407</v>
+        <v>337002.699306589</v>
       </c>
       <c r="AE4" t="n">
-        <v>355218.2037581912</v>
+        <v>461101.9607010732</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.560762857931279e-06</v>
+        <v>3.128799458573379e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>321316.6769433888</v>
+        <v>417095.0367324284</v>
       </c>
     </row>
   </sheetData>
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>590.2697457473731</v>
+        <v>698.0559227342454</v>
       </c>
       <c r="AB2" t="n">
-        <v>807.6331069948673</v>
+        <v>955.1109095388299</v>
       </c>
       <c r="AC2" t="n">
-        <v>730.5537367834612</v>
+        <v>863.956464839024</v>
       </c>
       <c r="AD2" t="n">
-        <v>590269.7457473731</v>
+        <v>698055.9227342454</v>
       </c>
       <c r="AE2" t="n">
-        <v>807633.1069948672</v>
+        <v>955110.9095388299</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.010558175235389e-06</v>
+        <v>1.789773619787016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.37152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>730553.7367834612</v>
+        <v>863956.464839024</v>
       </c>
     </row>
     <row r="3">
@@ -15014,28 +15014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.9245051776124</v>
+        <v>560.1675195304265</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.7079278237882</v>
+        <v>766.4459130683467</v>
       </c>
       <c r="AC3" t="n">
-        <v>584.0824694490535</v>
+        <v>693.297390838698</v>
       </c>
       <c r="AD3" t="n">
-        <v>471924.5051776124</v>
+        <v>560167.5195304265</v>
       </c>
       <c r="AE3" t="n">
-        <v>645707.9278237881</v>
+        <v>766445.9130683467</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.193737393459372e-06</v>
+        <v>2.114197626741516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>584082.4694490535</v>
+        <v>693297.390838698</v>
       </c>
     </row>
     <row r="4">
@@ -15120,28 +15120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>435.9126064421105</v>
+        <v>514.4267099051812</v>
       </c>
       <c r="AB4" t="n">
-        <v>596.4348592410292</v>
+        <v>703.8613193969848</v>
       </c>
       <c r="AC4" t="n">
-        <v>539.5119533766471</v>
+        <v>636.6857829493021</v>
       </c>
       <c r="AD4" t="n">
-        <v>435912.6064421105</v>
+        <v>514426.7099051811</v>
       </c>
       <c r="AE4" t="n">
-        <v>596434.8592410292</v>
+        <v>703861.3193969848</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.260510858312444e-06</v>
+        <v>2.232458394725473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.13541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>539511.9533766471</v>
+        <v>636685.782949302</v>
       </c>
     </row>
     <row r="5">
@@ -15226,28 +15226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.8212361860943</v>
+        <v>501.0641610303572</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.84022773739</v>
+        <v>685.5780905124002</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.9326691603713</v>
+        <v>620.1474797687894</v>
       </c>
       <c r="AD5" t="n">
-        <v>412821.2361860943</v>
+        <v>501064.1610303572</v>
       </c>
       <c r="AE5" t="n">
-        <v>564840.22773739</v>
+        <v>685578.0905124001</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.293499537297233e-06</v>
+        <v>2.290883796494001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>510932.6691603714</v>
+        <v>620147.4797687894</v>
       </c>
     </row>
     <row r="6">
@@ -15332,28 +15332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>402.7815151962135</v>
+        <v>481.2102778047125</v>
       </c>
       <c r="AB6" t="n">
-        <v>551.1034385578048</v>
+        <v>658.4131315915625</v>
       </c>
       <c r="AC6" t="n">
-        <v>498.5068998603811</v>
+        <v>595.5751064010971</v>
       </c>
       <c r="AD6" t="n">
-        <v>402781.5151962136</v>
+        <v>481210.2778047125</v>
       </c>
       <c r="AE6" t="n">
-        <v>551103.4385578048</v>
+        <v>658413.1315915625</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.316636393598781e-06</v>
+        <v>2.331860888232108e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH6" t="n">
-        <v>498506.899860381</v>
+        <v>595575.106401097</v>
       </c>
     </row>
     <row r="7">
@@ -15438,28 +15438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>395.0611320881415</v>
+        <v>473.4898946966404</v>
       </c>
       <c r="AB7" t="n">
-        <v>540.540069790076</v>
+        <v>647.8497628238339</v>
       </c>
       <c r="AC7" t="n">
-        <v>488.9516841820632</v>
+        <v>586.0198907227792</v>
       </c>
       <c r="AD7" t="n">
-        <v>395061.1320881415</v>
+        <v>473489.8946966404</v>
       </c>
       <c r="AE7" t="n">
-        <v>540540.069790076</v>
+        <v>647849.7628238339</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.330518507379711e-06</v>
+        <v>2.356447143274973e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.23263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>488951.6841820632</v>
+        <v>586019.8907227792</v>
       </c>
     </row>
     <row r="8">
@@ -15544,28 +15544,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>388.8223762121666</v>
+        <v>467.2511388206656</v>
       </c>
       <c r="AB8" t="n">
-        <v>532.003928766083</v>
+        <v>639.3136217998408</v>
       </c>
       <c r="AC8" t="n">
-        <v>481.2302204768509</v>
+        <v>578.2984270175668</v>
       </c>
       <c r="AD8" t="n">
-        <v>388822.3762121666</v>
+        <v>467251.1388206656</v>
       </c>
       <c r="AE8" t="n">
-        <v>532003.9287660831</v>
+        <v>639313.6217998408</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.339499588159129e-06</v>
+        <v>2.372353304691593e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>481230.2204768509</v>
+        <v>578298.4270175669</v>
       </c>
     </row>
     <row r="9">
@@ -15650,28 +15650,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>371.5694648525413</v>
+        <v>459.7270488422325</v>
       </c>
       <c r="AB9" t="n">
-        <v>508.3977342991135</v>
+        <v>629.0188299519261</v>
       </c>
       <c r="AC9" t="n">
-        <v>459.8769680783069</v>
+        <v>568.9861556547861</v>
       </c>
       <c r="AD9" t="n">
-        <v>371569.4648525413</v>
+        <v>459727.0488422326</v>
       </c>
       <c r="AE9" t="n">
-        <v>508397.7342991135</v>
+        <v>629018.8299519261</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.350943624609358e-06</v>
+        <v>2.392621543615818e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>459876.9680783069</v>
+        <v>568986.1556547862</v>
       </c>
     </row>
     <row r="10">
@@ -15756,28 +15756,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>365.8658761343002</v>
+        <v>454.0234601239915</v>
       </c>
       <c r="AB10" t="n">
-        <v>500.5938325902406</v>
+        <v>621.2149282430531</v>
       </c>
       <c r="AC10" t="n">
-        <v>452.8178597956839</v>
+        <v>561.9270473721631</v>
       </c>
       <c r="AD10" t="n">
-        <v>365865.8761343001</v>
+        <v>454023.4601239915</v>
       </c>
       <c r="AE10" t="n">
-        <v>500593.8325902406</v>
+        <v>621214.9282430531</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.355894414291087e-06</v>
+        <v>2.401389760019994e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>452817.8597956839</v>
+        <v>561927.047372163</v>
       </c>
     </row>
     <row r="11">
@@ -15862,28 +15862,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>360.6359494947905</v>
+        <v>448.7935334844817</v>
       </c>
       <c r="AB11" t="n">
-        <v>493.4380162339841</v>
+        <v>614.0591118867967</v>
       </c>
       <c r="AC11" t="n">
-        <v>446.3449845092172</v>
+        <v>555.4541720856963</v>
       </c>
       <c r="AD11" t="n">
-        <v>360635.9494947905</v>
+        <v>448793.5334844817</v>
       </c>
       <c r="AE11" t="n">
-        <v>493438.016233984</v>
+        <v>614059.1118867967</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.36072081227227e-06</v>
+        <v>2.409937669479341e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.86805555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>446344.9845092172</v>
+        <v>555454.1720856964</v>
       </c>
     </row>
     <row r="12">
@@ -15968,28 +15968,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>360.5368576101506</v>
+        <v>448.6944415998419</v>
       </c>
       <c r="AB12" t="n">
-        <v>493.3024343457944</v>
+        <v>613.9235299986069</v>
       </c>
       <c r="AC12" t="n">
-        <v>446.2223423661459</v>
+        <v>555.3315299426253</v>
       </c>
       <c r="AD12" t="n">
-        <v>360536.8576101506</v>
+        <v>448694.4415998419</v>
       </c>
       <c r="AE12" t="n">
-        <v>493302.4343457944</v>
+        <v>613923.5299986069</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.35980031368823e-06</v>
+        <v>2.40830739808761e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>446222.3423661459</v>
+        <v>555331.5299426252</v>
       </c>
     </row>
     <row r="13">
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>361.1588597280725</v>
+        <v>449.3164437177638</v>
       </c>
       <c r="AB13" t="n">
-        <v>494.1534850843319</v>
+        <v>614.7745807371444</v>
       </c>
       <c r="AC13" t="n">
-        <v>446.9921700166547</v>
+        <v>556.1013575931338</v>
       </c>
       <c r="AD13" t="n">
-        <v>361158.8597280725</v>
+        <v>449316.4437177638</v>
       </c>
       <c r="AE13" t="n">
-        <v>494153.4850843319</v>
+        <v>614774.5807371445</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.360024218749213e-06</v>
+        <v>2.408703950588301e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.87673611111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>446992.1700166547</v>
+        <v>556101.3575931338</v>
       </c>
     </row>
   </sheetData>
@@ -16371,28 +16371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>662.6785815709295</v>
+        <v>782.6195410422655</v>
       </c>
       <c r="AB2" t="n">
-        <v>906.7060706210405</v>
+        <v>1070.814582791405</v>
       </c>
       <c r="AC2" t="n">
-        <v>820.1713158109301</v>
+        <v>968.6175419074981</v>
       </c>
       <c r="AD2" t="n">
-        <v>662678.5815709295</v>
+        <v>782619.5410422655</v>
       </c>
       <c r="AE2" t="n">
-        <v>906706.0706210404</v>
+        <v>1070814.582791405</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.385664505792985e-07</v>
+        <v>1.636777934934595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.54340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>820171.3158109301</v>
+        <v>968617.5419074981</v>
       </c>
     </row>
     <row r="3">
@@ -16477,28 +16477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>509.3530461315075</v>
+        <v>609.2896222151923</v>
       </c>
       <c r="AB3" t="n">
-        <v>696.9193087875962</v>
+        <v>833.6569410758666</v>
       </c>
       <c r="AC3" t="n">
-        <v>630.4063080893003</v>
+        <v>754.0938926644504</v>
       </c>
       <c r="AD3" t="n">
-        <v>509353.0461315075</v>
+        <v>609289.6222151923</v>
       </c>
       <c r="AE3" t="n">
-        <v>696919.3087875962</v>
+        <v>833656.9410758666</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.1366930896378e-06</v>
+        <v>1.982293493192136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>630406.3080893003</v>
+        <v>754093.8926644505</v>
       </c>
     </row>
     <row r="4">
@@ -16583,28 +16583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>468.6351034722153</v>
+        <v>558.654828716646</v>
       </c>
       <c r="AB4" t="n">
-        <v>641.2072232923024</v>
+        <v>764.3761827617236</v>
       </c>
       <c r="AC4" t="n">
-        <v>580.0113058412743</v>
+        <v>691.4251926876544</v>
       </c>
       <c r="AD4" t="n">
-        <v>468635.1034722153</v>
+        <v>558654.8287166459</v>
       </c>
       <c r="AE4" t="n">
-        <v>641207.2232923023</v>
+        <v>764376.1827617236</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.207772971465382e-06</v>
+        <v>2.106250600460713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.51736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>580011.3058412743</v>
+        <v>691425.1926876544</v>
       </c>
     </row>
     <row r="5">
@@ -16689,28 +16689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.7720777596434</v>
+        <v>533.7897008187996</v>
       </c>
       <c r="AB5" t="n">
-        <v>620.8709758019447</v>
+        <v>730.3546177998677</v>
       </c>
       <c r="AC5" t="n">
-        <v>561.6159212692938</v>
+        <v>660.6505981361917</v>
       </c>
       <c r="AD5" t="n">
-        <v>453772.0777596434</v>
+        <v>533789.7008187996</v>
       </c>
       <c r="AE5" t="n">
-        <v>620870.9758019447</v>
+        <v>730354.6177998676</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.243337288195987e-06</v>
+        <v>2.168271663391047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>561615.9212692939</v>
+        <v>660650.5981361916</v>
       </c>
     </row>
     <row r="6">
@@ -16795,28 +16795,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>432.3734719020505</v>
+        <v>522.3078562919097</v>
       </c>
       <c r="AB6" t="n">
-        <v>591.592459227723</v>
+        <v>714.6446515749465</v>
       </c>
       <c r="AC6" t="n">
-        <v>535.1317052242597</v>
+        <v>646.439969038701</v>
       </c>
       <c r="AD6" t="n">
-        <v>432373.4719020505</v>
+        <v>522307.8562919097</v>
       </c>
       <c r="AE6" t="n">
-        <v>591592.459227723</v>
+        <v>714644.6515749465</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.268371252063246e-06</v>
+        <v>2.21192871042974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.68402777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>535131.7052242596</v>
+        <v>646439.9690387009</v>
       </c>
     </row>
     <row r="7">
@@ -16901,28 +16901,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>424.1596158655884</v>
+        <v>504.091898070173</v>
       </c>
       <c r="AB7" t="n">
-        <v>580.3538990288819</v>
+        <v>689.7207739046072</v>
       </c>
       <c r="AC7" t="n">
-        <v>524.9657374373777</v>
+        <v>623.8947912723366</v>
       </c>
       <c r="AD7" t="n">
-        <v>424159.6158655884</v>
+        <v>504091.898070173</v>
       </c>
       <c r="AE7" t="n">
-        <v>580353.8990288819</v>
+        <v>689720.7739046072</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.285263693114862e-06</v>
+        <v>2.241387652589247e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.46701388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>524965.7374373777</v>
+        <v>623894.7912723366</v>
       </c>
     </row>
     <row r="8">
@@ -17007,28 +17007,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>416.3544333892585</v>
+        <v>496.2867155938429</v>
       </c>
       <c r="AB8" t="n">
-        <v>569.6745040244186</v>
+        <v>679.0413789001437</v>
       </c>
       <c r="AC8" t="n">
-        <v>515.3055689035153</v>
+        <v>614.2346227384743</v>
       </c>
       <c r="AD8" t="n">
-        <v>416354.4333892585</v>
+        <v>496286.7155938429</v>
       </c>
       <c r="AE8" t="n">
-        <v>569674.5040244187</v>
+        <v>679041.3789001438</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.298524137461298e-06</v>
+        <v>2.26451270963798e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.29340277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>515305.5689035153</v>
+        <v>614234.6227384743</v>
       </c>
     </row>
     <row r="9">
@@ -17113,28 +17113,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>412.1448996623845</v>
+        <v>492.0771818669691</v>
       </c>
       <c r="AB9" t="n">
-        <v>563.9148342677886</v>
+        <v>673.2817091435138</v>
       </c>
       <c r="AC9" t="n">
-        <v>510.0955939447108</v>
+        <v>609.0246477796696</v>
       </c>
       <c r="AD9" t="n">
-        <v>412144.8996623845</v>
+        <v>492077.1818669691</v>
       </c>
       <c r="AE9" t="n">
-        <v>563914.8342677886</v>
+        <v>673281.7091435138</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.305934385772541e-06</v>
+        <v>2.277435535635802e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.20659722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>510095.5939447108</v>
+        <v>609024.6477796696</v>
       </c>
     </row>
     <row r="10">
@@ -17219,28 +17219,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>406.6430096616623</v>
+        <v>486.5752918662469</v>
       </c>
       <c r="AB10" t="n">
-        <v>556.3869056425443</v>
+        <v>665.7537805182695</v>
       </c>
       <c r="AC10" t="n">
-        <v>503.2861202619457</v>
+        <v>602.2151740969044</v>
       </c>
       <c r="AD10" t="n">
-        <v>406643.0096616623</v>
+        <v>486575.2918662468</v>
       </c>
       <c r="AE10" t="n">
-        <v>556386.9056425443</v>
+        <v>665753.7805182695</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.313564016435104e-06</v>
+        <v>2.290740945298032e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>503286.1202619456</v>
+        <v>602215.1740969045</v>
       </c>
     </row>
     <row r="11">
@@ -17325,28 +17325,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>400.2258433552061</v>
+        <v>480.1581255597907</v>
       </c>
       <c r="AB11" t="n">
-        <v>547.6066555966542</v>
+        <v>656.9735304723794</v>
       </c>
       <c r="AC11" t="n">
-        <v>495.3438449572769</v>
+        <v>594.2728987922359</v>
       </c>
       <c r="AD11" t="n">
-        <v>400225.8433552061</v>
+        <v>480158.1255597907</v>
       </c>
       <c r="AE11" t="n">
-        <v>547606.6555966542</v>
+        <v>656973.5304723794</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.320145486974694e-06</v>
+        <v>2.302218455230308e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.02430555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>495343.8449572769</v>
+        <v>594272.8987922359</v>
       </c>
     </row>
     <row r="12">
@@ -17431,28 +17431,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>385.6782240233885</v>
+        <v>475.5272675586759</v>
       </c>
       <c r="AB12" t="n">
-        <v>527.701961031192</v>
+        <v>650.637386256218</v>
       </c>
       <c r="AC12" t="n">
-        <v>477.3388265047282</v>
+        <v>588.5414672872305</v>
       </c>
       <c r="AD12" t="n">
-        <v>385678.2240233885</v>
+        <v>475527.267558676</v>
       </c>
       <c r="AE12" t="n">
-        <v>527701.961031192</v>
+        <v>650637.386256218</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.324094369298449e-06</v>
+        <v>2.309104961189674e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.98090277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>477338.8265047282</v>
+        <v>588541.4672872305</v>
       </c>
     </row>
     <row r="13">
@@ -17537,28 +17537,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>381.1685887650293</v>
+        <v>471.0176323003168</v>
       </c>
       <c r="AB13" t="n">
-        <v>521.5316791196387</v>
+        <v>644.4671043446646</v>
       </c>
       <c r="AC13" t="n">
-        <v>471.7574276387684</v>
+        <v>582.9600684212709</v>
       </c>
       <c r="AD13" t="n">
-        <v>381168.5887650293</v>
+        <v>471017.6323003168</v>
       </c>
       <c r="AE13" t="n">
-        <v>521531.6791196387</v>
+        <v>644467.1043446646</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.328213882339897e-06</v>
+        <v>2.316289032221357e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>471757.4276387685</v>
+        <v>582960.0684212709</v>
       </c>
     </row>
     <row r="14">
@@ -17643,28 +17643,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>378.8543557746303</v>
+        <v>468.7033993099178</v>
       </c>
       <c r="AB14" t="n">
-        <v>518.3652434454208</v>
+        <v>641.3006686704468</v>
       </c>
       <c r="AC14" t="n">
-        <v>468.8931921411777</v>
+        <v>580.0958329236801</v>
       </c>
       <c r="AD14" t="n">
-        <v>378854.3557746303</v>
+        <v>468703.3993099178</v>
       </c>
       <c r="AE14" t="n">
-        <v>518365.2434454208</v>
+        <v>641300.6686704468</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.326531950979779e-06</v>
+        <v>2.31335589079422e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>468893.1921411777</v>
+        <v>580095.8329236801</v>
       </c>
     </row>
     <row r="15">
@@ -17749,28 +17749,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>377.1018557507023</v>
+        <v>466.9508992859897</v>
       </c>
       <c r="AB15" t="n">
-        <v>515.967395597838</v>
+        <v>638.9028208228641</v>
       </c>
       <c r="AC15" t="n">
-        <v>466.7241915267675</v>
+        <v>577.9268323092699</v>
       </c>
       <c r="AD15" t="n">
-        <v>377101.8557507023</v>
+        <v>466950.8992859898</v>
       </c>
       <c r="AE15" t="n">
-        <v>515967.395597838</v>
+        <v>638902.8208228641</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.331699624144199e-06</v>
+        <v>2.322367861555858e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>466724.1915267675</v>
+        <v>577926.8323092699</v>
       </c>
     </row>
   </sheetData>
@@ -18046,28 +18046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>832.2634410881935</v>
+        <v>966.479378097643</v>
       </c>
       <c r="AB2" t="n">
-        <v>1138.739556968541</v>
+        <v>1322.379723174114</v>
       </c>
       <c r="AC2" t="n">
-        <v>1030.059851882469</v>
+        <v>1196.173658365974</v>
       </c>
       <c r="AD2" t="n">
-        <v>832263.4410881936</v>
+        <v>966479.378097643</v>
       </c>
       <c r="AE2" t="n">
-        <v>1138739.556968541</v>
+        <v>1322379.723174114</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.140252472654025e-07</v>
+        <v>1.383788969705573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.08680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1030059.851882469</v>
+        <v>1196173.658365974</v>
       </c>
     </row>
     <row r="3">
@@ -18152,28 +18152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>598.7165095522018</v>
+        <v>702.0907627906955</v>
       </c>
       <c r="AB3" t="n">
-        <v>819.1903418775529</v>
+        <v>960.6315557086451</v>
       </c>
       <c r="AC3" t="n">
-        <v>741.0079653896245</v>
+        <v>868.9502282866678</v>
       </c>
       <c r="AD3" t="n">
-        <v>598716.5095522018</v>
+        <v>702090.7627906955</v>
       </c>
       <c r="AE3" t="n">
-        <v>819190.3418775529</v>
+        <v>960631.5557086451</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.031730768189929e-06</v>
+        <v>1.753873926543704e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>741007.9653896245</v>
+        <v>868950.2282866677</v>
       </c>
     </row>
     <row r="4">
@@ -18258,28 +18258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>545.5174776201592</v>
+        <v>638.4690541887828</v>
       </c>
       <c r="AB4" t="n">
-        <v>746.4010794124846</v>
+        <v>873.5815272078181</v>
       </c>
       <c r="AC4" t="n">
-        <v>675.1656079738506</v>
+        <v>790.2081323304773</v>
       </c>
       <c r="AD4" t="n">
-        <v>545517.4776201592</v>
+        <v>638469.0541887828</v>
       </c>
       <c r="AE4" t="n">
-        <v>746401.0794124845</v>
+        <v>873581.5272078181</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.112549796005313e-06</v>
+        <v>1.891260917437358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>675165.6079738506</v>
+        <v>790208.1323304772</v>
       </c>
     </row>
     <row r="5">
@@ -18364,28 +18364,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>511.4745899978555</v>
+        <v>604.5114179124997</v>
       </c>
       <c r="AB5" t="n">
-        <v>699.8220987014432</v>
+        <v>827.1191911494261</v>
       </c>
       <c r="AC5" t="n">
-        <v>633.0320598078612</v>
+        <v>748.1800964152001</v>
       </c>
       <c r="AD5" t="n">
-        <v>511474.5899978555</v>
+        <v>604511.4179124997</v>
       </c>
       <c r="AE5" t="n">
-        <v>699822.0987014432</v>
+        <v>827119.1911494262</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.161276493707106e-06</v>
+        <v>1.974093074101334e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.58680555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>633032.0598078612</v>
+        <v>748180.0964152</v>
       </c>
     </row>
     <row r="6">
@@ -18470,28 +18470,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>500.0686820126871</v>
+        <v>592.9349177267391</v>
       </c>
       <c r="AB6" t="n">
-        <v>684.2160322029891</v>
+        <v>811.2797128761252</v>
       </c>
       <c r="AC6" t="n">
-        <v>618.9154143927676</v>
+        <v>733.8523157174554</v>
       </c>
       <c r="AD6" t="n">
-        <v>500068.6820126871</v>
+        <v>592934.9177267391</v>
       </c>
       <c r="AE6" t="n">
-        <v>684216.0322029891</v>
+        <v>811279.7128761252</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.185886887621194e-06</v>
+        <v>2.015929112667495e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>618915.4143927676</v>
+        <v>733852.3157174555</v>
       </c>
     </row>
     <row r="7">
@@ -18576,28 +18576,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>480.4641444948699</v>
+        <v>573.4156315549425</v>
       </c>
       <c r="AB7" t="n">
-        <v>657.3922390799572</v>
+        <v>784.5725644057428</v>
       </c>
       <c r="AC7" t="n">
-        <v>594.6516464379679</v>
+        <v>709.694060013368</v>
       </c>
       <c r="AD7" t="n">
-        <v>480464.1444948699</v>
+        <v>573415.6315549425</v>
       </c>
       <c r="AE7" t="n">
-        <v>657392.2390799572</v>
+        <v>784572.5644057428</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.204074109892313e-06</v>
+        <v>2.046846185145165e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.96180555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>594651.6464379679</v>
+        <v>709694.060013368</v>
       </c>
     </row>
     <row r="8">
@@ -18682,28 +18682,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>472.7855830422552</v>
+        <v>565.7370701023277</v>
       </c>
       <c r="AB8" t="n">
-        <v>646.8860925462666</v>
+        <v>774.0664178720521</v>
       </c>
       <c r="AC8" t="n">
-        <v>585.1481917839833</v>
+        <v>700.1906053593834</v>
       </c>
       <c r="AD8" t="n">
-        <v>472785.5830422551</v>
+        <v>565737.0701023277</v>
       </c>
       <c r="AE8" t="n">
-        <v>646886.0925462666</v>
+        <v>774066.4178720521</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.218567420266192e-06</v>
+        <v>2.071483852216631e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.76215277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>585148.1917839833</v>
+        <v>700190.6053593834</v>
       </c>
     </row>
     <row r="9">
@@ -18788,28 +18788,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>466.7523701108747</v>
+        <v>559.7038571709473</v>
       </c>
       <c r="AB9" t="n">
-        <v>638.6311844469823</v>
+        <v>765.8115097727677</v>
       </c>
       <c r="AC9" t="n">
-        <v>577.6811205278584</v>
+        <v>692.7235341032585</v>
       </c>
       <c r="AD9" t="n">
-        <v>466752.3701108746</v>
+        <v>559703.8571709474</v>
       </c>
       <c r="AE9" t="n">
-        <v>638631.1844469822</v>
+        <v>765811.5097727678</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.230119717983035e-06</v>
+        <v>2.091121992690805e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.60590277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>577681.1205278584</v>
+        <v>692723.5341032585</v>
       </c>
     </row>
     <row r="10">
@@ -18894,28 +18894,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>462.1695738738813</v>
+        <v>555.1210609339539</v>
       </c>
       <c r="AB10" t="n">
-        <v>632.3608004568273</v>
+        <v>759.5411257826128</v>
       </c>
       <c r="AC10" t="n">
-        <v>572.0091731851844</v>
+        <v>687.0515867605845</v>
       </c>
       <c r="AD10" t="n">
-        <v>462169.5738738814</v>
+        <v>555121.060933954</v>
       </c>
       <c r="AE10" t="n">
-        <v>632360.8004568273</v>
+        <v>759541.1257826127</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.236966395448617e-06</v>
+        <v>2.102760890609306e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>572009.1731851844</v>
+        <v>687051.5867605845</v>
       </c>
     </row>
     <row r="11">
@@ -19000,28 +19000,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>457.2645441860614</v>
+        <v>539.8786954308357</v>
       </c>
       <c r="AB11" t="n">
-        <v>625.6495224433145</v>
+        <v>738.685848855539</v>
       </c>
       <c r="AC11" t="n">
-        <v>565.9384101259436</v>
+        <v>668.1867081928658</v>
       </c>
       <c r="AD11" t="n">
-        <v>457264.5441860614</v>
+        <v>539878.6954308357</v>
       </c>
       <c r="AE11" t="n">
-        <v>625649.5224433144</v>
+        <v>738685.848855539</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.244424803546864e-06</v>
+        <v>2.115439690060046e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.41493055555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>565938.4101259436</v>
+        <v>668186.7081928658</v>
       </c>
     </row>
     <row r="12">
@@ -19106,28 +19106,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>453.0358837989538</v>
+        <v>535.6500350437281</v>
       </c>
       <c r="AB12" t="n">
-        <v>619.863682746344</v>
+        <v>732.9000091585685</v>
       </c>
       <c r="AC12" t="n">
-        <v>560.7047628491749</v>
+        <v>662.9530609160972</v>
       </c>
       <c r="AD12" t="n">
-        <v>453035.8837989538</v>
+        <v>535650.0350437281</v>
       </c>
       <c r="AE12" t="n">
-        <v>619863.682746344</v>
+        <v>732900.0091585686</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.248353996456665e-06</v>
+        <v>2.122119057594031e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>560704.7628491749</v>
+        <v>662953.0609160973</v>
       </c>
     </row>
     <row r="13">
@@ -19212,28 +19212,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>448.1379592724323</v>
+        <v>530.7521105172066</v>
       </c>
       <c r="AB13" t="n">
-        <v>613.1621263279775</v>
+        <v>726.1984527402021</v>
       </c>
       <c r="AC13" t="n">
-        <v>554.6427935696838</v>
+        <v>656.8910916366061</v>
       </c>
       <c r="AD13" t="n">
-        <v>448137.9592724323</v>
+        <v>530752.1105172066</v>
       </c>
       <c r="AE13" t="n">
-        <v>613162.1263279775</v>
+        <v>726198.4527402021</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.254824224302148e-06</v>
+        <v>2.133118016108079e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>554642.7935696838</v>
+        <v>656891.0916366061</v>
       </c>
     </row>
     <row r="14">
@@ -19318,28 +19318,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>446.1419942008449</v>
+        <v>528.7561454456193</v>
       </c>
       <c r="AB14" t="n">
-        <v>610.4311588612672</v>
+        <v>723.4674852734919</v>
       </c>
       <c r="AC14" t="n">
-        <v>552.1724658050596</v>
+        <v>654.4207638719819</v>
       </c>
       <c r="AD14" t="n">
-        <v>446141.9942008449</v>
+        <v>528756.1454456192</v>
       </c>
       <c r="AE14" t="n">
-        <v>610431.1588612673</v>
+        <v>723467.4852734919</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.255412426833555e-06</v>
+        <v>2.134117921427537e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.26736111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>552172.4658050595</v>
+        <v>654420.7638719819</v>
       </c>
     </row>
     <row r="15">
@@ -19424,28 +19424,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>442.207648193017</v>
+        <v>524.8217994377914</v>
       </c>
       <c r="AB15" t="n">
-        <v>605.0480130822611</v>
+        <v>718.0843394944859</v>
       </c>
       <c r="AC15" t="n">
-        <v>547.3030799039093</v>
+        <v>649.5513779708316</v>
       </c>
       <c r="AD15" t="n">
-        <v>442207.6481930169</v>
+        <v>524821.7994377913</v>
       </c>
       <c r="AE15" t="n">
-        <v>605048.0130822612</v>
+        <v>718084.3394944859</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.259788653667227e-06</v>
+        <v>2.141557217004312e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>547303.0799039092</v>
+        <v>649551.3779708316</v>
       </c>
     </row>
     <row r="16">
@@ -19530,28 +19530,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>435.8300546906752</v>
+        <v>518.4442059354495</v>
       </c>
       <c r="AB16" t="n">
-        <v>596.3219082927892</v>
+        <v>709.3582347050138</v>
       </c>
       <c r="AC16" t="n">
-        <v>539.4097823083795</v>
+        <v>641.6580803753018</v>
       </c>
       <c r="AD16" t="n">
-        <v>435830.0546906752</v>
+        <v>518444.2059354495</v>
       </c>
       <c r="AE16" t="n">
-        <v>596321.9082927892</v>
+        <v>709358.2347050138</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.266870612145372e-06</v>
+        <v>2.153596077050598e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>539409.7823083794</v>
+        <v>641658.0803753018</v>
       </c>
     </row>
     <row r="17">
@@ -19636,28 +19636,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>434.016977704355</v>
+        <v>516.6311289491293</v>
       </c>
       <c r="AB17" t="n">
-        <v>593.8411763727944</v>
+        <v>706.8775027850191</v>
       </c>
       <c r="AC17" t="n">
-        <v>537.1658079611</v>
+        <v>639.4141060280223</v>
       </c>
       <c r="AD17" t="n">
-        <v>434016.977704355</v>
+        <v>516631.1289491293</v>
       </c>
       <c r="AE17" t="n">
-        <v>593841.1763727944</v>
+        <v>706877.5027850191</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.267882320499393e-06</v>
+        <v>2.155315914200066e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>537165.8079611</v>
+        <v>639414.1060280222</v>
       </c>
     </row>
     <row r="18">
@@ -19742,28 +19742,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>431.8955967925785</v>
+        <v>514.5097480373528</v>
       </c>
       <c r="AB18" t="n">
-        <v>590.9386094205812</v>
+        <v>703.9749358328058</v>
       </c>
       <c r="AC18" t="n">
-        <v>534.5402579250276</v>
+        <v>636.78855599195</v>
       </c>
       <c r="AD18" t="n">
-        <v>431895.5967925785</v>
+        <v>514509.7480373528</v>
       </c>
       <c r="AE18" t="n">
-        <v>590938.6094205813</v>
+        <v>703974.9358328058</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.266964724550398e-06</v>
+        <v>2.153756061901711e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>534540.2579250276</v>
+        <v>636788.55599195</v>
       </c>
     </row>
     <row r="19">
@@ -19848,28 +19848,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>426.6189561941734</v>
+        <v>509.2331074389477</v>
       </c>
       <c r="AB19" t="n">
-        <v>583.7188769648897</v>
+        <v>696.7552033771142</v>
       </c>
       <c r="AC19" t="n">
-        <v>528.009566601949</v>
+        <v>630.2578646688714</v>
       </c>
       <c r="AD19" t="n">
-        <v>426618.9561941734</v>
+        <v>509233.1074389477</v>
       </c>
       <c r="AE19" t="n">
-        <v>583718.8769648897</v>
+        <v>696755.2033771141</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.273717289610955e-06</v>
+        <v>2.165234974969099e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.03298611111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>528009.566601949</v>
+        <v>630257.8646688714</v>
       </c>
     </row>
     <row r="20">
@@ -19954,28 +19954,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>426.8213635659459</v>
+        <v>509.4355148107202</v>
       </c>
       <c r="AB20" t="n">
-        <v>583.9958196605319</v>
+        <v>697.0321460727563</v>
       </c>
       <c r="AC20" t="n">
-        <v>528.2600782754107</v>
+        <v>630.5083763423329</v>
       </c>
       <c r="AD20" t="n">
-        <v>426821.3635659459</v>
+        <v>509435.5148107202</v>
       </c>
       <c r="AE20" t="n">
-        <v>583995.8196605318</v>
+        <v>697032.1460727563</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.270540995941355e-06</v>
+        <v>2.159835486244021e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.07638888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>528260.0782754107</v>
+        <v>630508.3763423329</v>
       </c>
     </row>
     <row r="21">
@@ -20060,28 +20060,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>427.2196142018257</v>
+        <v>509.8337654466</v>
       </c>
       <c r="AB21" t="n">
-        <v>584.5407237501206</v>
+        <v>697.5770501623451</v>
       </c>
       <c r="AC21" t="n">
-        <v>528.7529774834668</v>
+        <v>631.0012755503892</v>
       </c>
       <c r="AD21" t="n">
-        <v>427219.6142018257</v>
+        <v>509833.7654466</v>
       </c>
       <c r="AE21" t="n">
-        <v>584540.7237501206</v>
+        <v>697577.0501623452</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.27082333315643e-06</v>
+        <v>2.160315440797361e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>528752.9774834668</v>
+        <v>631001.2755503892</v>
       </c>
     </row>
     <row r="22">
@@ -20166,28 +20166,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>428.7549077538151</v>
+        <v>511.3690589985895</v>
       </c>
       <c r="AB22" t="n">
-        <v>586.6413801203238</v>
+        <v>699.6777065325484</v>
       </c>
       <c r="AC22" t="n">
-        <v>530.6531501579876</v>
+        <v>632.9014482249098</v>
       </c>
       <c r="AD22" t="n">
-        <v>428754.9077538151</v>
+        <v>511369.0589985895</v>
       </c>
       <c r="AE22" t="n">
-        <v>586641.3801203237</v>
+        <v>699677.7065325484</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.270235130625023e-06</v>
+        <v>2.159315535477902e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.07638888888889</v>
       </c>
       <c r="AH22" t="n">
-        <v>530653.1501579876</v>
+        <v>632901.4482249098</v>
       </c>
     </row>
   </sheetData>
@@ -20463,28 +20463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.6018035090175</v>
+        <v>618.5980157745369</v>
       </c>
       <c r="AB2" t="n">
-        <v>715.0468431254293</v>
+        <v>846.393095801103</v>
       </c>
       <c r="AC2" t="n">
-        <v>646.8037759920851</v>
+        <v>765.6145266580158</v>
       </c>
       <c r="AD2" t="n">
-        <v>522601.8035090175</v>
+        <v>618598.0157745369</v>
       </c>
       <c r="AE2" t="n">
-        <v>715046.8431254292</v>
+        <v>846393.0958011029</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.088786574492448e-06</v>
+        <v>1.963339844202231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.29513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>646803.7759920851</v>
+        <v>765614.5266580158</v>
       </c>
     </row>
     <row r="3">
@@ -20569,28 +20569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.5462058729455</v>
+        <v>511.0195231233315</v>
       </c>
       <c r="AB3" t="n">
-        <v>580.8828485320954</v>
+        <v>699.1994561275858</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.4442047423897</v>
+        <v>632.4688413673683</v>
       </c>
       <c r="AD3" t="n">
-        <v>424546.2058729455</v>
+        <v>511019.5231233314</v>
       </c>
       <c r="AE3" t="n">
-        <v>580882.8485320954</v>
+        <v>699199.4561275858</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.256476251938533e-06</v>
+        <v>2.265724014713145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.58680555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>525444.2047423897</v>
+        <v>632468.8413673684</v>
       </c>
     </row>
     <row r="4">
@@ -20675,28 +20675,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>391.4405174142694</v>
+        <v>477.8284938100837</v>
       </c>
       <c r="AB4" t="n">
-        <v>535.5861850630382</v>
+        <v>653.7860255363311</v>
       </c>
       <c r="AC4" t="n">
-        <v>484.470591260553</v>
+        <v>591.3896048535928</v>
       </c>
       <c r="AD4" t="n">
-        <v>391440.5174142694</v>
+        <v>477828.4938100837</v>
       </c>
       <c r="AE4" t="n">
-        <v>535586.1850630383</v>
+        <v>653786.0255363311</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.321816173311346e-06</v>
+        <v>2.383547354983562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>484470.591260553</v>
+        <v>591389.6048535928</v>
       </c>
     </row>
     <row r="5">
@@ -20781,28 +20781,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>380.2451630773389</v>
+        <v>457.0250826205503</v>
       </c>
       <c r="AB5" t="n">
-        <v>520.2682073550745</v>
+        <v>625.3218805650836</v>
       </c>
       <c r="AC5" t="n">
-        <v>470.6145398461205</v>
+        <v>565.6420379287226</v>
       </c>
       <c r="AD5" t="n">
-        <v>380245.1630773389</v>
+        <v>457025.0826205503</v>
       </c>
       <c r="AE5" t="n">
-        <v>520268.2073550745</v>
+        <v>625321.8805650836</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350400798049044e-06</v>
+        <v>2.435092197649585e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>470614.5398461205</v>
+        <v>565642.0379287227</v>
       </c>
     </row>
     <row r="6">
@@ -20887,28 +20887,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>372.4283398112817</v>
+        <v>449.208259354493</v>
       </c>
       <c r="AB6" t="n">
-        <v>509.572884908551</v>
+        <v>614.62655811856</v>
       </c>
       <c r="AC6" t="n">
-        <v>460.939963962914</v>
+        <v>555.9674620455161</v>
       </c>
       <c r="AD6" t="n">
-        <v>372428.3398112817</v>
+        <v>449208.259354493</v>
       </c>
       <c r="AE6" t="n">
-        <v>509572.8849085511</v>
+        <v>614626.55811856</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.365902166228259e-06</v>
+        <v>2.463044832719583e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>460939.963962914</v>
+        <v>555967.4620455161</v>
       </c>
     </row>
     <row r="7">
@@ -20993,28 +20993,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>364.5330713505151</v>
+        <v>441.3129908937265</v>
       </c>
       <c r="AB7" t="n">
-        <v>498.7702302858686</v>
+        <v>603.8239034958776</v>
       </c>
       <c r="AC7" t="n">
-        <v>451.1682995357993</v>
+        <v>546.1957976184015</v>
       </c>
       <c r="AD7" t="n">
-        <v>364533.0713505151</v>
+        <v>441312.9908937265</v>
       </c>
       <c r="AE7" t="n">
-        <v>498770.2302858686</v>
+        <v>603823.9034958776</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.377712732460041e-06</v>
+        <v>2.4843420784872e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>451168.2995357993</v>
+        <v>546195.7976184015</v>
       </c>
     </row>
     <row r="8">
@@ -21099,28 +21099,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>347.1831496614468</v>
+        <v>433.4857852026894</v>
       </c>
       <c r="AB8" t="n">
-        <v>475.0313020063614</v>
+        <v>593.1143753574565</v>
       </c>
       <c r="AC8" t="n">
-        <v>429.6949812534932</v>
+        <v>536.5083718145942</v>
       </c>
       <c r="AD8" t="n">
-        <v>347183.1496614468</v>
+        <v>433485.7852026895</v>
       </c>
       <c r="AE8" t="n">
-        <v>475031.3020063614</v>
+        <v>593114.3753574565</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.389421483465687e-06</v>
+        <v>2.505455727308544e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>429694.9812534932</v>
+        <v>536508.3718145941</v>
       </c>
     </row>
     <row r="9">
@@ -21205,28 +21205,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>340.4093342601485</v>
+        <v>417.2745051493804</v>
       </c>
       <c r="AB9" t="n">
-        <v>465.7630689346605</v>
+        <v>570.9333867973188</v>
       </c>
       <c r="AC9" t="n">
-        <v>421.3112953381087</v>
+        <v>516.4443056714231</v>
       </c>
       <c r="AD9" t="n">
-        <v>340409.3342601485</v>
+        <v>417274.5051493804</v>
       </c>
       <c r="AE9" t="n">
-        <v>465763.0689346605</v>
+        <v>570933.3867973188</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.399144837561681e-06</v>
+        <v>2.522989235677575e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.78993055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>421311.2953381087</v>
+        <v>516444.305671423</v>
       </c>
     </row>
     <row r="10">
@@ -21311,28 +21311,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>340.2860919833937</v>
+        <v>417.1512628726256</v>
       </c>
       <c r="AB10" t="n">
-        <v>465.5944434145392</v>
+        <v>570.7647612771974</v>
       </c>
       <c r="AC10" t="n">
-        <v>421.1587632009603</v>
+        <v>516.2917735342746</v>
       </c>
       <c r="AD10" t="n">
-        <v>340286.0919833937</v>
+        <v>417151.2628726256</v>
       </c>
       <c r="AE10" t="n">
-        <v>465594.4434145392</v>
+        <v>570764.7612771974</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.398483038591797e-06</v>
+        <v>2.521795855526803e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>421158.7632009602</v>
+        <v>516291.7735342747</v>
       </c>
     </row>
   </sheetData>
@@ -21608,28 +21608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.5669190599407</v>
+        <v>512.9987832001316</v>
       </c>
       <c r="AB2" t="n">
-        <v>575.4382127607979</v>
+        <v>701.9075670834557</v>
       </c>
       <c r="AC2" t="n">
-        <v>520.5191973675106</v>
+        <v>634.9184940144676</v>
       </c>
       <c r="AD2" t="n">
-        <v>420566.9190599407</v>
+        <v>512998.7832001316</v>
       </c>
       <c r="AE2" t="n">
-        <v>575438.2127607979</v>
+        <v>701907.5670834556</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.22600067304085e-06</v>
+        <v>2.287325373682441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>520519.1973675106</v>
+        <v>634918.4940144676</v>
       </c>
     </row>
     <row r="3">
@@ -21714,28 +21714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.7855134587503</v>
+        <v>439.9656570994649</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.1696797802248</v>
+        <v>601.9804219583971</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.5794506924481</v>
+        <v>544.5282553715157</v>
       </c>
       <c r="AD3" t="n">
-        <v>356785.5134587503</v>
+        <v>439965.6570994649</v>
       </c>
       <c r="AE3" t="n">
-        <v>488169.6797802248</v>
+        <v>601980.421958397</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.367455150660888e-06</v>
+        <v>2.551234214024918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.83159722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>441579.4506924481</v>
+        <v>544528.2553715156</v>
       </c>
     </row>
     <row r="4">
@@ -21820,28 +21820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.9721960861681</v>
+        <v>413.9007087359574</v>
       </c>
       <c r="AB4" t="n">
-        <v>465.1649571998453</v>
+        <v>566.3172097030806</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.7702665478092</v>
+        <v>512.2686900402135</v>
       </c>
       <c r="AD4" t="n">
-        <v>339972.1960861681</v>
+        <v>413900.7087359575</v>
       </c>
       <c r="AE4" t="n">
-        <v>465164.9571998453</v>
+        <v>566317.2097030806</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.417461363367803e-06</v>
+        <v>2.64452982281328e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.24131944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>420770.2665478092</v>
+        <v>512268.6900402135</v>
       </c>
     </row>
     <row r="5">
@@ -21926,28 +21926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>319.6978229391161</v>
+        <v>402.7926257252591</v>
       </c>
       <c r="AB5" t="n">
-        <v>437.4246654178323</v>
+        <v>551.1186404738067</v>
       </c>
       <c r="AC5" t="n">
-        <v>395.6774692797273</v>
+        <v>498.5206509268559</v>
       </c>
       <c r="AD5" t="n">
-        <v>319697.8229391161</v>
+        <v>402792.6257252591</v>
       </c>
       <c r="AE5" t="n">
-        <v>437424.6654178323</v>
+        <v>551118.6404738068</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.443127330441129e-06</v>
+        <v>2.692414313432122e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.94618055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>395677.4692797273</v>
+        <v>498520.6509268559</v>
       </c>
     </row>
     <row r="6">
@@ -22032,28 +22032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>310.7505139305622</v>
+        <v>384.7642779263721</v>
       </c>
       <c r="AB6" t="n">
-        <v>425.1825625049139</v>
+        <v>526.4514596607982</v>
       </c>
       <c r="AC6" t="n">
-        <v>384.6037354869185</v>
+        <v>476.2076712300351</v>
       </c>
       <c r="AD6" t="n">
-        <v>310750.5139305622</v>
+        <v>384764.2779263721</v>
       </c>
       <c r="AE6" t="n">
-        <v>425182.5625049139</v>
+        <v>526451.4596607982</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.457047405558378e-06</v>
+        <v>2.718384724149985e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>384603.7354869185</v>
+        <v>476207.6712300351</v>
       </c>
     </row>
     <row r="7">
@@ -22138,28 +22138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>309.7525656971403</v>
+        <v>383.7663296929503</v>
       </c>
       <c r="AB7" t="n">
-        <v>423.8171257055772</v>
+        <v>525.0860228614615</v>
       </c>
       <c r="AC7" t="n">
-        <v>383.368614059308</v>
+        <v>474.9725498024245</v>
       </c>
       <c r="AD7" t="n">
-        <v>309752.5656971403</v>
+        <v>383766.3296929502</v>
       </c>
       <c r="AE7" t="n">
-        <v>423817.1257055772</v>
+        <v>525086.0228614615</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46062685344567e-06</v>
+        <v>2.72506282976315e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.75520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>383368.614059308</v>
+        <v>474972.5498024245</v>
       </c>
     </row>
   </sheetData>
@@ -41288,28 +41288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.1455859129841</v>
+        <v>436.8469897314184</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.2941026804966</v>
+        <v>597.713323679542</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.7874374422378</v>
+        <v>540.6684029634841</v>
       </c>
       <c r="AD2" t="n">
-        <v>356145.5859129842</v>
+        <v>436846.9897314184</v>
       </c>
       <c r="AE2" t="n">
-        <v>487294.1026804966</v>
+        <v>597713.3236795419</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.338182537434162e-06</v>
+        <v>2.573374644122219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.79513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>440787.4374422378</v>
+        <v>540668.4029634842</v>
       </c>
     </row>
     <row r="3">
@@ -41394,28 +41394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.7886459644359</v>
+        <v>385.437975790357</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.3394687865856</v>
+        <v>527.3732427997543</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.3639124673222</v>
+        <v>477.04148067994</v>
       </c>
       <c r="AD3" t="n">
-        <v>313788.6459644359</v>
+        <v>385437.975790357</v>
       </c>
       <c r="AE3" t="n">
-        <v>429339.4687865856</v>
+        <v>527373.2427997543</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.459688381801404e-06</v>
+        <v>2.807034888715496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.31076388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>388363.9124673221</v>
+        <v>477041.48067994</v>
       </c>
     </row>
     <row r="4">
@@ -41500,28 +41500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.10263399088</v>
+        <v>370.6333561001711</v>
       </c>
       <c r="AB4" t="n">
-        <v>396.9312222512673</v>
+        <v>507.1169090059171</v>
       </c>
       <c r="AC4" t="n">
-        <v>359.0486634960748</v>
+        <v>458.7183829534436</v>
       </c>
       <c r="AD4" t="n">
-        <v>290102.63399088</v>
+        <v>370633.3561001711</v>
       </c>
       <c r="AE4" t="n">
-        <v>396931.2222512673</v>
+        <v>507116.9090059171</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.499870337105695e-06</v>
+        <v>2.884306278857517e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.87673611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>359048.6634960748</v>
+        <v>458718.3829534436</v>
       </c>
     </row>
     <row r="5">
@@ -41606,28 +41606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>287.2340740800157</v>
+        <v>358.9686552519574</v>
       </c>
       <c r="AB5" t="n">
-        <v>393.0063320292911</v>
+        <v>491.156750695109</v>
       </c>
       <c r="AC5" t="n">
-        <v>355.498359288266</v>
+        <v>444.2814397515961</v>
       </c>
       <c r="AD5" t="n">
-        <v>287234.0740800157</v>
+        <v>358968.6552519574</v>
       </c>
       <c r="AE5" t="n">
-        <v>393006.3320292911</v>
+        <v>491156.750695109</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.507906728166553e-06</v>
+        <v>2.899760556885921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.78993055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>355498.359288266</v>
+        <v>444281.4397515961</v>
       </c>
     </row>
   </sheetData>
@@ -41903,28 +41903,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.3686493742109</v>
+        <v>320.4999320290146</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.670163909551</v>
+        <v>438.5221464611869</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.5844500207577</v>
+        <v>396.6702082726286</v>
       </c>
       <c r="AD2" t="n">
-        <v>253368.6493742109</v>
+        <v>320499.9320290146</v>
       </c>
       <c r="AE2" t="n">
-        <v>346670.163909551</v>
+        <v>438522.1464611869</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.565660564374477e-06</v>
+        <v>3.229330417563205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.31944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>313584.4500207577</v>
+        <v>396670.2082726286</v>
       </c>
     </row>
     <row r="3">
@@ -42009,28 +42009,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.7136618298365</v>
+        <v>317.8449444846402</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.0374928215559</v>
+        <v>434.88947537319</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.2984759629139</v>
+        <v>393.3842342147842</v>
       </c>
       <c r="AD3" t="n">
-        <v>250713.6618298365</v>
+        <v>317844.9444846401</v>
       </c>
       <c r="AE3" t="n">
-        <v>343037.4928215559</v>
+        <v>434889.47537319</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582587738421471e-06</v>
+        <v>3.264244395265124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>310298.4759629139</v>
+        <v>393384.2342147842</v>
       </c>
     </row>
   </sheetData>
@@ -42306,28 +42306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.8588698734241</v>
+        <v>738.6108998065295</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.1182520041574</v>
+        <v>1010.600018328445</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.1750363743228</v>
+        <v>914.1497709652114</v>
       </c>
       <c r="AD2" t="n">
-        <v>619858.8698734241</v>
+        <v>738610.8998065295</v>
       </c>
       <c r="AE2" t="n">
-        <v>848118.2520041574</v>
+        <v>1010600.018328445</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.750663551467675e-07</v>
+        <v>1.713153121793973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.91840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>767175.0363743227</v>
+        <v>914149.7709652113</v>
       </c>
     </row>
     <row r="3">
@@ -42412,28 +42412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.8531414128323</v>
+        <v>578.9599237984983</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.2386788764237</v>
+        <v>792.1585096502865</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.2720400503511</v>
+        <v>716.5560132907135</v>
       </c>
       <c r="AD3" t="n">
-        <v>489853.1414128323</v>
+        <v>578959.9237984982</v>
       </c>
       <c r="AE3" t="n">
-        <v>670238.6788764237</v>
+        <v>792158.5096502865</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.165864826398281e-06</v>
+        <v>2.048378509207579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>606272.0400503511</v>
+        <v>716556.0132907135</v>
       </c>
     </row>
     <row r="4">
@@ -42518,28 +42518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>452.0748639495322</v>
+        <v>541.0963054806266</v>
       </c>
       <c r="AB4" t="n">
-        <v>618.5487729911621</v>
+        <v>740.3518366428272</v>
       </c>
       <c r="AC4" t="n">
-        <v>559.5153462355402</v>
+        <v>669.6936964439637</v>
       </c>
       <c r="AD4" t="n">
-        <v>452074.8639495323</v>
+        <v>541096.3054806266</v>
       </c>
       <c r="AE4" t="n">
-        <v>618548.772991162</v>
+        <v>740351.8366428271</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.233936797109305e-06</v>
+        <v>2.167978276459015e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.31770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>559515.3462355401</v>
+        <v>669693.6964439638</v>
       </c>
     </row>
     <row r="5">
@@ -42624,28 +42624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.0806351340985</v>
+        <v>517.1873280112134</v>
       </c>
       <c r="AB5" t="n">
-        <v>585.7188105752188</v>
+        <v>707.6385188795333</v>
       </c>
       <c r="AC5" t="n">
-        <v>529.8186293554329</v>
+        <v>640.1024918145689</v>
       </c>
       <c r="AD5" t="n">
-        <v>428080.6351340985</v>
+        <v>517187.3280112133</v>
       </c>
       <c r="AE5" t="n">
-        <v>585718.8105752188</v>
+        <v>707638.5188795333</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.269191430765069e-06</v>
+        <v>2.22991927707531e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.84027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>529818.6293554329</v>
+        <v>640102.4918145689</v>
       </c>
     </row>
     <row r="6">
@@ -42730,28 +42730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>416.8980084262666</v>
+        <v>506.0047013033815</v>
       </c>
       <c r="AB6" t="n">
-        <v>570.4182473708914</v>
+        <v>692.3379556752059</v>
       </c>
       <c r="AC6" t="n">
-        <v>515.9783304288511</v>
+        <v>626.2621928879871</v>
       </c>
       <c r="AD6" t="n">
-        <v>416898.0084262667</v>
+        <v>506004.7013033815</v>
       </c>
       <c r="AE6" t="n">
-        <v>570418.2473708914</v>
+        <v>692337.9556752059</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.293810588345909e-06</v>
+        <v>2.273174165773839e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.51909722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>515978.3304288511</v>
+        <v>626262.1928879871</v>
       </c>
     </row>
     <row r="7">
@@ -42836,28 +42836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>409.976341218277</v>
+        <v>489.1728976337556</v>
       </c>
       <c r="AB7" t="n">
-        <v>560.9477169345141</v>
+        <v>669.3079393276535</v>
       </c>
       <c r="AC7" t="n">
-        <v>507.4116541253488</v>
+        <v>605.430128977814</v>
       </c>
       <c r="AD7" t="n">
-        <v>409976.341218277</v>
+        <v>489172.8976337556</v>
       </c>
       <c r="AE7" t="n">
-        <v>560947.7169345141</v>
+        <v>669307.9393276535</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.307277267542629e-06</v>
+        <v>2.296834589891935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.34548611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>507411.6541253488</v>
+        <v>605430.128977814</v>
       </c>
     </row>
     <row r="8">
@@ -42942,28 +42942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>404.1841713541019</v>
+        <v>483.3807277695805</v>
       </c>
       <c r="AB8" t="n">
-        <v>553.02261459385</v>
+        <v>661.3828369869892</v>
       </c>
       <c r="AC8" t="n">
-        <v>500.2429124291266</v>
+        <v>598.261387281592</v>
       </c>
       <c r="AD8" t="n">
-        <v>404184.1713541019</v>
+        <v>483380.7277695804</v>
       </c>
       <c r="AE8" t="n">
-        <v>553022.61459385</v>
+        <v>661382.8369869892</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.315844734380761e-06</v>
+        <v>2.311887291159024e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.24131944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>500242.9124291266</v>
+        <v>598261.387281592</v>
       </c>
     </row>
     <row r="9">
@@ -43048,28 +43048,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>397.2462328137871</v>
+        <v>476.4427892292656</v>
       </c>
       <c r="AB9" t="n">
-        <v>543.5298210027448</v>
+        <v>651.890043395884</v>
       </c>
       <c r="AC9" t="n">
-        <v>491.6560977351371</v>
+        <v>589.6745725876023</v>
       </c>
       <c r="AD9" t="n">
-        <v>397246.2328137871</v>
+        <v>476442.7892292656</v>
       </c>
       <c r="AE9" t="n">
-        <v>543529.8210027448</v>
+        <v>651890.0433958841</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.327637310861984e-06</v>
+        <v>2.332606382845619e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH9" t="n">
-        <v>491656.0977351371</v>
+        <v>589674.5725876023</v>
       </c>
     </row>
     <row r="10">
@@ -43154,28 +43154,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>390.6131709585953</v>
+        <v>469.8097273740738</v>
       </c>
       <c r="AB10" t="n">
-        <v>534.4541731424351</v>
+        <v>642.8143955355744</v>
       </c>
       <c r="AC10" t="n">
-        <v>483.4466169688636</v>
+        <v>581.465091821329</v>
       </c>
       <c r="AD10" t="n">
-        <v>390613.1709585953</v>
+        <v>469809.7273740738</v>
       </c>
       <c r="AE10" t="n">
-        <v>534454.1731424351</v>
+        <v>642814.3955355744</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.335195392239302e-06</v>
+        <v>2.345885633676068e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.00694444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>483446.6169688636</v>
+        <v>581465.091821329</v>
       </c>
     </row>
     <row r="11">
@@ -43260,28 +43260,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>376.3351017069032</v>
+        <v>465.3564537294465</v>
       </c>
       <c r="AB11" t="n">
-        <v>514.9182888883113</v>
+        <v>636.721230070428</v>
       </c>
       <c r="AC11" t="n">
-        <v>465.7752100891674</v>
+        <v>575.9534495163646</v>
       </c>
       <c r="AD11" t="n">
-        <v>376335.1017069032</v>
+        <v>465356.4537294465</v>
       </c>
       <c r="AE11" t="n">
-        <v>514918.2888883112</v>
+        <v>636721.230070428</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.338715931773362e-06</v>
+        <v>2.352071082759958e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.96354166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>465775.2100891675</v>
+        <v>575953.4495163646</v>
       </c>
     </row>
     <row r="12">
@@ -43366,28 +43366,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>371.9363497716445</v>
+        <v>460.9577017941877</v>
       </c>
       <c r="AB12" t="n">
-        <v>508.8997224312508</v>
+        <v>630.7026636133673</v>
       </c>
       <c r="AC12" t="n">
-        <v>460.3310471676577</v>
+        <v>570.5092865948549</v>
       </c>
       <c r="AD12" t="n">
-        <v>371936.3497716445</v>
+        <v>460957.7017941877</v>
       </c>
       <c r="AE12" t="n">
-        <v>508899.7224312508</v>
+        <v>630702.6636133674</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.341571754052739e-06</v>
+        <v>2.357088649848987e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>460331.0471676578</v>
+        <v>570509.2865948549</v>
       </c>
     </row>
     <row r="13">
@@ -43472,28 +43472,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>368.0928808558891</v>
+        <v>457.1142328784323</v>
       </c>
       <c r="AB13" t="n">
-        <v>503.6409186988329</v>
+        <v>625.4438598809496</v>
       </c>
       <c r="AC13" t="n">
-        <v>455.5741362826844</v>
+        <v>565.7523757098816</v>
       </c>
       <c r="AD13" t="n">
-        <v>368092.8808558891</v>
+        <v>457114.2328784323</v>
       </c>
       <c r="AE13" t="n">
-        <v>503640.9186988329</v>
+        <v>625443.8598809496</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.346987968720525e-06</v>
+        <v>2.366604725362664e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.86805555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>455574.1362826844</v>
+        <v>565752.3757098815</v>
       </c>
     </row>
     <row r="14">
@@ -43578,28 +43578,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>369.1529790418058</v>
+        <v>458.174331064349</v>
       </c>
       <c r="AB14" t="n">
-        <v>505.0913918050353</v>
+        <v>626.894332987152</v>
       </c>
       <c r="AC14" t="n">
-        <v>456.8861782713827</v>
+        <v>567.0644176985799</v>
       </c>
       <c r="AD14" t="n">
-        <v>369152.9790418058</v>
+        <v>458174.331064349</v>
       </c>
       <c r="AE14" t="n">
-        <v>505091.3918050353</v>
+        <v>626894.332987152</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.346692538829554e-06</v>
+        <v>2.366085666698282e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.86805555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>456886.1782713827</v>
+        <v>567064.4176985798</v>
       </c>
     </row>
   </sheetData>
@@ -43875,28 +43875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>785.1524814595017</v>
+        <v>918.2493364457403</v>
       </c>
       <c r="AB2" t="n">
-        <v>1074.280263615712</v>
+        <v>1256.389252426713</v>
       </c>
       <c r="AC2" t="n">
-        <v>971.7524630180471</v>
+        <v>1136.481225528497</v>
       </c>
       <c r="AD2" t="n">
-        <v>785152.4814595017</v>
+        <v>918249.3364457403</v>
       </c>
       <c r="AE2" t="n">
-        <v>1074280.263615712</v>
+        <v>1256389.252426713</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.43025363337668e-07</v>
+        <v>1.441479422541436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>971752.4630180472</v>
+        <v>1136481.225528497</v>
       </c>
     </row>
     <row r="3">
@@ -43981,28 +43981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.3712463793737</v>
+        <v>680.7797219029371</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.3530552348257</v>
+        <v>931.4728493892449</v>
       </c>
       <c r="AC3" t="n">
-        <v>715.8274303142018</v>
+        <v>842.5743879738894</v>
       </c>
       <c r="AD3" t="n">
-        <v>578371.2463793737</v>
+        <v>680779.7219029372</v>
       </c>
       <c r="AE3" t="n">
-        <v>791353.0552348257</v>
+        <v>931472.8493892448</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.05658704395581e-06</v>
+        <v>1.80664609657318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.48784722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>715827.4303142019</v>
+        <v>842574.3879738895</v>
       </c>
     </row>
     <row r="4">
@@ -44087,28 +44087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>528.6889927730385</v>
+        <v>620.924902378758</v>
       </c>
       <c r="AB4" t="n">
-        <v>723.3756040243002</v>
+        <v>849.5768447079903</v>
       </c>
       <c r="AC4" t="n">
-        <v>654.337651640257</v>
+        <v>768.4944230376494</v>
       </c>
       <c r="AD4" t="n">
-        <v>528688.9927730386</v>
+        <v>620924.9023787581</v>
       </c>
       <c r="AE4" t="n">
-        <v>723375.6040243001</v>
+        <v>849576.8447079903</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.134994215078112e-06</v>
+        <v>1.94071362130934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.14236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>654337.651640257</v>
+        <v>768494.4230376495</v>
       </c>
     </row>
     <row r="5">
@@ -44193,28 +44193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>496.8850687531603</v>
+        <v>589.0356375043082</v>
       </c>
       <c r="AB5" t="n">
-        <v>679.8600720902</v>
+        <v>805.9445456516925</v>
       </c>
       <c r="AC5" t="n">
-        <v>614.9751809995147</v>
+        <v>729.0263293649683</v>
       </c>
       <c r="AD5" t="n">
-        <v>496885.0687531603</v>
+        <v>589035.6375043081</v>
       </c>
       <c r="AE5" t="n">
-        <v>679860.0720902</v>
+        <v>805944.5456516924</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.180970946586439e-06</v>
+        <v>2.019328708431481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.43923611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>614975.1809995146</v>
+        <v>729026.3293649683</v>
       </c>
     </row>
     <row r="6">
@@ -44299,28 +44299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>485.78993067496</v>
+        <v>567.8532743628356</v>
       </c>
       <c r="AB6" t="n">
-        <v>664.6792146886604</v>
+        <v>776.9619019016216</v>
       </c>
       <c r="AC6" t="n">
-        <v>601.2431633219109</v>
+        <v>702.8097484570083</v>
       </c>
       <c r="AD6" t="n">
-        <v>485789.93067496</v>
+        <v>567853.2743628356</v>
       </c>
       <c r="AE6" t="n">
-        <v>664679.2146886605</v>
+        <v>776961.9019016216</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.205240397738667e-06</v>
+        <v>2.060826765256018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>601243.1633219109</v>
+        <v>702809.7484570083</v>
       </c>
     </row>
     <row r="7">
@@ -44405,28 +44405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>466.5074314215591</v>
+        <v>558.7432515187276</v>
       </c>
       <c r="AB7" t="n">
-        <v>638.2960485263285</v>
+        <v>764.4971667404701</v>
       </c>
       <c r="AC7" t="n">
-        <v>577.3779695091057</v>
+        <v>691.5346301252716</v>
       </c>
       <c r="AD7" t="n">
-        <v>466507.4314215591</v>
+        <v>558743.2515187275</v>
       </c>
       <c r="AE7" t="n">
-        <v>638296.0485263285</v>
+        <v>764497.1667404701</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.223412831348254e-06</v>
+        <v>2.091899601548876e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.83159722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>577377.9695091057</v>
+        <v>691534.6301252716</v>
       </c>
     </row>
     <row r="8">
@@ -44511,28 +44511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>459.3579017739832</v>
+        <v>551.5937218711516</v>
       </c>
       <c r="AB8" t="n">
-        <v>628.513746647528</v>
+        <v>754.7148648616698</v>
       </c>
       <c r="AC8" t="n">
-        <v>568.5292767920708</v>
+        <v>682.6859374082368</v>
       </c>
       <c r="AD8" t="n">
-        <v>459357.9017739832</v>
+        <v>551593.7218711516</v>
       </c>
       <c r="AE8" t="n">
-        <v>628513.746647528</v>
+        <v>754714.8648616697</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.237931799192988e-06</v>
+        <v>2.116725418534815e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.63194444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>568529.2767920708</v>
+        <v>682685.9374082368</v>
       </c>
     </row>
     <row r="9">
@@ -44617,28 +44617,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>449.1657999423388</v>
+        <v>531.1438027756428</v>
       </c>
       <c r="AB9" t="n">
-        <v>614.5684632776736</v>
+        <v>726.7343833684372</v>
       </c>
       <c r="AC9" t="n">
-        <v>555.9149116947074</v>
+        <v>657.3758737978658</v>
       </c>
       <c r="AD9" t="n">
-        <v>449165.7999423388</v>
+        <v>531143.8027756428</v>
       </c>
       <c r="AE9" t="n">
-        <v>614568.4632776736</v>
+        <v>726734.3833684372</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.255392518692539e-06</v>
+        <v>2.146581303014638e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH9" t="n">
-        <v>555914.9116947073</v>
+        <v>657375.8737978658</v>
       </c>
     </row>
     <row r="10">
@@ -44723,28 +44723,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>448.0423932452957</v>
+        <v>530.0203960785996</v>
       </c>
       <c r="AB10" t="n">
-        <v>613.0313686735736</v>
+        <v>725.197288764337</v>
       </c>
       <c r="AC10" t="n">
-        <v>554.5245152422967</v>
+        <v>655.9854773454554</v>
       </c>
       <c r="AD10" t="n">
-        <v>448042.3932452957</v>
+        <v>530020.3960785996</v>
       </c>
       <c r="AE10" t="n">
-        <v>613031.3686735736</v>
+        <v>725197.2887643371</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.255772099551225e-06</v>
+        <v>2.147230343981591e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.39756944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>554524.5152422967</v>
+        <v>655985.4773454553</v>
       </c>
     </row>
     <row r="11">
@@ -44829,28 +44829,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>444.6890523574699</v>
+        <v>526.6670551907738</v>
       </c>
       <c r="AB11" t="n">
-        <v>608.4431797318914</v>
+        <v>720.6090998226548</v>
       </c>
       <c r="AC11" t="n">
-        <v>550.374216613645</v>
+        <v>651.8351787168036</v>
       </c>
       <c r="AD11" t="n">
-        <v>444689.0523574699</v>
+        <v>526667.0551907738</v>
       </c>
       <c r="AE11" t="n">
-        <v>608443.1797318914</v>
+        <v>720609.0998226549</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.259615355745419e-06</v>
+        <v>2.153801883771987e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.34548611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>550374.216613645</v>
+        <v>651835.1787168037</v>
       </c>
     </row>
     <row r="12">
@@ -44935,28 +44935,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>438.8286443762855</v>
+        <v>520.8066472095895</v>
       </c>
       <c r="AB12" t="n">
-        <v>600.4247109890817</v>
+        <v>712.5906310798454</v>
       </c>
       <c r="AC12" t="n">
-        <v>543.1210192736576</v>
+        <v>644.5819813768163</v>
       </c>
       <c r="AD12" t="n">
-        <v>438828.6443762855</v>
+        <v>520806.6472095895</v>
       </c>
       <c r="AE12" t="n">
-        <v>600424.7109890818</v>
+        <v>712590.6310798454</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.267752620403498e-06</v>
+        <v>2.167715699501035e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.24131944444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>543121.0192736576</v>
+        <v>644581.9813768163</v>
       </c>
     </row>
     <row r="13">
@@ -45041,28 +45041,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>435.9272917525278</v>
+        <v>517.9052945858317</v>
       </c>
       <c r="AB13" t="n">
-        <v>596.4549523306124</v>
+        <v>708.6208724213759</v>
       </c>
       <c r="AC13" t="n">
-        <v>539.5301288099613</v>
+        <v>640.9910909131199</v>
       </c>
       <c r="AD13" t="n">
-        <v>435927.2917525278</v>
+        <v>517905.2945858317</v>
       </c>
       <c r="AE13" t="n">
-        <v>596454.9523306123</v>
+        <v>708620.8724213759</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.270243619788624e-06</v>
+        <v>2.171975030846661e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>539530.1288099613</v>
+        <v>640991.09091312</v>
       </c>
     </row>
     <row r="14">
@@ -45147,28 +45147,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>431.7717466418601</v>
+        <v>513.749749475164</v>
       </c>
       <c r="AB14" t="n">
-        <v>590.7691521804854</v>
+        <v>702.9350722712491</v>
       </c>
       <c r="AC14" t="n">
-        <v>534.3869734460917</v>
+        <v>635.8479355492503</v>
       </c>
       <c r="AD14" t="n">
-        <v>431771.7466418601</v>
+        <v>513749.749475164</v>
       </c>
       <c r="AE14" t="n">
-        <v>590769.1521804854</v>
+        <v>702935.072271249</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.274063152179151e-06</v>
+        <v>2.178506005576622e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.16319444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>534386.9734460918</v>
+        <v>635847.9355492503</v>
       </c>
     </row>
     <row r="15">
@@ -45253,28 +45253,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>426.4746604516145</v>
+        <v>508.4526632849184</v>
       </c>
       <c r="AB15" t="n">
-        <v>583.5214451640417</v>
+        <v>695.6873652548052</v>
       </c>
       <c r="AC15" t="n">
-        <v>527.8309774150769</v>
+        <v>629.2919395182354</v>
       </c>
       <c r="AD15" t="n">
-        <v>426474.6604516145</v>
+        <v>508452.6632849184</v>
       </c>
       <c r="AE15" t="n">
-        <v>583521.4451640417</v>
+        <v>695687.3652548052</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.279804312666774e-06</v>
+        <v>2.188322750201781e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH15" t="n">
-        <v>527830.9774150768</v>
+        <v>629291.9395182354</v>
       </c>
     </row>
     <row r="16">
@@ -45359,28 +45359,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>423.7733320884939</v>
+        <v>505.7513349217978</v>
       </c>
       <c r="AB16" t="n">
-        <v>579.8253685234235</v>
+        <v>691.9912886141872</v>
       </c>
       <c r="AC16" t="n">
-        <v>524.4876491415631</v>
+        <v>625.9486112447215</v>
       </c>
       <c r="AD16" t="n">
-        <v>423773.3320884939</v>
+        <v>505751.3349217977</v>
       </c>
       <c r="AE16" t="n">
-        <v>579825.3685234236</v>
+        <v>691991.2886141872</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.277716617944002e-06</v>
+        <v>2.184753024883542e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>524487.6491415631</v>
+        <v>625948.6112447216</v>
       </c>
     </row>
     <row r="17">
@@ -45465,28 +45465,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>420.7458680654516</v>
+        <v>502.7238708987555</v>
       </c>
       <c r="AB17" t="n">
-        <v>575.6830586848108</v>
+        <v>687.8489787755743</v>
       </c>
       <c r="AC17" t="n">
-        <v>520.7406755401792</v>
+        <v>622.2016376433377</v>
       </c>
       <c r="AD17" t="n">
-        <v>420745.8680654516</v>
+        <v>502723.8708987555</v>
       </c>
       <c r="AE17" t="n">
-        <v>575683.0586848108</v>
+        <v>687848.9787755744</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.282556273892247e-06</v>
+        <v>2.193028297212188e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.05902777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>520740.6755401791</v>
+        <v>622201.6376433377</v>
       </c>
     </row>
     <row r="18">
@@ -45571,28 +45571,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>405.0097428022282</v>
+        <v>497.160222044825</v>
       </c>
       <c r="AB18" t="n">
-        <v>554.1521978708181</v>
+        <v>680.2365489627621</v>
       </c>
       <c r="AC18" t="n">
-        <v>501.264689863521</v>
+        <v>615.315727447748</v>
       </c>
       <c r="AD18" t="n">
-        <v>405009.7428022282</v>
+        <v>497160.222044825</v>
       </c>
       <c r="AE18" t="n">
-        <v>554152.1978708181</v>
+        <v>680236.5489627621</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.287633167877171e-06</v>
+        <v>2.20170922014518e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>501264.689863521</v>
+        <v>615315.7274477481</v>
       </c>
     </row>
     <row r="19">
@@ -45677,28 +45677,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>405.990367579566</v>
+        <v>498.1408468221629</v>
       </c>
       <c r="AB19" t="n">
-        <v>555.4939319532838</v>
+        <v>681.5782830452279</v>
       </c>
       <c r="AC19" t="n">
-        <v>502.4783707282917</v>
+        <v>616.5294083125189</v>
       </c>
       <c r="AD19" t="n">
-        <v>405990.367579566</v>
+        <v>498140.8468221629</v>
       </c>
       <c r="AE19" t="n">
-        <v>555493.9319532837</v>
+        <v>681578.2830452279</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.28775178689551e-06</v>
+        <v>2.201912045447353e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>502478.3707282917</v>
+        <v>616529.4083125188</v>
       </c>
     </row>
     <row r="20">
@@ -45783,28 +45783,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>407.1742824720881</v>
+        <v>499.3247617146849</v>
       </c>
       <c r="AB20" t="n">
-        <v>557.1138165398712</v>
+        <v>683.1981676318152</v>
       </c>
       <c r="AC20" t="n">
-        <v>503.9436558034575</v>
+        <v>617.9946933876846</v>
       </c>
       <c r="AD20" t="n">
-        <v>407174.2824720881</v>
+        <v>499324.7617146849</v>
       </c>
       <c r="AE20" t="n">
-        <v>557113.8165398712</v>
+        <v>683198.1676318152</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.287585720269835e-06</v>
+        <v>2.201628090024311e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>503943.6558034575</v>
+        <v>617994.6933876846</v>
       </c>
     </row>
   </sheetData>
@@ -46080,28 +46080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.1873709118885</v>
+        <v>300.343386258045</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.8477836809321</v>
+        <v>410.9430712933067</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.1809074841204</v>
+        <v>371.7232413312956</v>
       </c>
       <c r="AD2" t="n">
-        <v>227187.3709118885</v>
+        <v>300343.386258045</v>
       </c>
       <c r="AE2" t="n">
-        <v>310847.7836809321</v>
+        <v>410943.0712933067</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.587347118726077e-06</v>
+        <v>3.40241599237183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>281180.9074841205</v>
+        <v>371723.2413312956</v>
       </c>
     </row>
   </sheetData>
@@ -46377,28 +46377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.1453128929238</v>
+        <v>550.7571604431255</v>
       </c>
       <c r="AB2" t="n">
-        <v>625.4863849279302</v>
+        <v>753.570244609359</v>
       </c>
       <c r="AC2" t="n">
-        <v>565.7908422260626</v>
+        <v>681.6505581063219</v>
       </c>
       <c r="AD2" t="n">
-        <v>457145.3128929238</v>
+        <v>550757.1604431255</v>
       </c>
       <c r="AE2" t="n">
-        <v>625486.3849279302</v>
+        <v>753570.244609359</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.177770014411646e-06</v>
+        <v>2.169961793421955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.25347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>565790.8422260627</v>
+        <v>681650.558106322</v>
       </c>
     </row>
     <row r="3">
@@ -46483,28 +46483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.3966371244403</v>
+        <v>461.4226784336265</v>
       </c>
       <c r="AB3" t="n">
-        <v>528.6849255302003</v>
+        <v>631.3388651647693</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.2279782515504</v>
+        <v>571.0847699631055</v>
       </c>
       <c r="AD3" t="n">
-        <v>386396.6371244403</v>
+        <v>461422.6784336265</v>
       </c>
       <c r="AE3" t="n">
-        <v>528684.9255302004</v>
+        <v>631338.8651647693</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.327430964398333e-06</v>
+        <v>2.445701996912004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>478227.9782515505</v>
+        <v>571084.7699631054</v>
       </c>
     </row>
     <row r="4">
@@ -46589,28 +46589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.6261235566187</v>
+        <v>433.5668240112333</v>
       </c>
       <c r="AB4" t="n">
-        <v>490.6880837181147</v>
+        <v>593.2252562304861</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.857501693108</v>
+        <v>536.6086703727241</v>
       </c>
       <c r="AD4" t="n">
-        <v>358626.1235566187</v>
+        <v>433566.8240112333</v>
       </c>
       <c r="AE4" t="n">
-        <v>490688.0837181148</v>
+        <v>593225.2562304861</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.381150048401935e-06</v>
+        <v>2.544675785036226e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.42361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>443857.501693108</v>
+        <v>536608.6703727241</v>
       </c>
     </row>
     <row r="5">
@@ -46695,28 +46695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>346.9740950700412</v>
+        <v>421.9147955246559</v>
       </c>
       <c r="AB5" t="n">
-        <v>474.7452642915626</v>
+        <v>577.2824368039339</v>
       </c>
       <c r="AC5" t="n">
-        <v>429.4362425767384</v>
+        <v>522.1874112563545</v>
       </c>
       <c r="AD5" t="n">
-        <v>346974.0950700413</v>
+        <v>421914.7955246558</v>
       </c>
       <c r="AE5" t="n">
-        <v>474745.2642915626</v>
+        <v>577282.4368039339</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.40926373244273e-06</v>
+        <v>2.596473351194622e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>429436.2425767384</v>
+        <v>522187.4112563545</v>
       </c>
     </row>
     <row r="6">
@@ -46801,28 +46801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>326.243971975641</v>
+        <v>410.4774860422123</v>
       </c>
       <c r="AB6" t="n">
-        <v>446.3813953253189</v>
+        <v>561.6334053915717</v>
       </c>
       <c r="AC6" t="n">
-        <v>403.7793814556928</v>
+        <v>508.0319014384345</v>
       </c>
       <c r="AD6" t="n">
-        <v>326243.971975641</v>
+        <v>410477.4860422123</v>
       </c>
       <c r="AE6" t="n">
-        <v>446381.3953253189</v>
+        <v>561633.4053915717</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.431420241798301e-06</v>
+        <v>2.637295224895663e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.84201388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>403779.3814556928</v>
+        <v>508031.9014384346</v>
       </c>
     </row>
     <row r="7">
@@ -46907,28 +46907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>321.3344932518473</v>
+        <v>396.3604450524824</v>
       </c>
       <c r="AB7" t="n">
-        <v>439.6640299445093</v>
+        <v>542.3178471095299</v>
       </c>
       <c r="AC7" t="n">
-        <v>397.7031119989462</v>
+        <v>490.5597929292745</v>
       </c>
       <c r="AD7" t="n">
-        <v>321334.4932518473</v>
+        <v>396360.4450524824</v>
       </c>
       <c r="AE7" t="n">
-        <v>439664.0299445093</v>
+        <v>542317.8471095299</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.437011625055486e-06</v>
+        <v>2.647596971324935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH7" t="n">
-        <v>397703.1119989462</v>
+        <v>490559.7929292744</v>
       </c>
     </row>
     <row r="8">
@@ -47013,28 +47013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>321.8381446144576</v>
+        <v>396.8640964150927</v>
       </c>
       <c r="AB8" t="n">
-        <v>440.3531479583626</v>
+        <v>543.0069651233832</v>
       </c>
       <c r="AC8" t="n">
-        <v>398.3264615567406</v>
+        <v>491.1831424870689</v>
       </c>
       <c r="AD8" t="n">
-        <v>321838.1446144576</v>
+        <v>396864.0964150927</v>
       </c>
       <c r="AE8" t="n">
-        <v>440353.1479583626</v>
+        <v>543006.9651233832</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.435809738934782e-06</v>
+        <v>2.645382577232662e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>398326.4615567406</v>
+        <v>491183.1424870689</v>
       </c>
     </row>
   </sheetData>
@@ -47310,28 +47310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.7695609687561</v>
+        <v>658.5356267641105</v>
       </c>
       <c r="AB2" t="n">
-        <v>754.9554556724855</v>
+        <v>901.0374970800842</v>
       </c>
       <c r="AC2" t="n">
-        <v>682.9035665697397</v>
+        <v>815.0437429728298</v>
       </c>
       <c r="AD2" t="n">
-        <v>551769.5609687561</v>
+        <v>658535.6267641105</v>
       </c>
       <c r="AE2" t="n">
-        <v>754955.4556724855</v>
+        <v>901037.4970800842</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.047505350489228e-06</v>
+        <v>1.871291863509634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.84201388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>682903.5665697397</v>
+        <v>815043.7429728298</v>
       </c>
     </row>
     <row r="3">
@@ -47416,28 +47416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.2701943340062</v>
+        <v>540.2371550338867</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.5018355885902</v>
+        <v>739.176309098555</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.6181516306868</v>
+        <v>668.6303595986536</v>
       </c>
       <c r="AD3" t="n">
-        <v>443270.1943340062</v>
+        <v>540237.1550338867</v>
       </c>
       <c r="AE3" t="n">
-        <v>606501.8355885902</v>
+        <v>739176.309098555</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.224450011648691e-06</v>
+        <v>2.187390587553888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.82986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>548618.1516306868</v>
+        <v>668630.3595986536</v>
       </c>
     </row>
     <row r="4">
@@ -47522,28 +47522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.5887481278076</v>
+        <v>496.9272854413575</v>
       </c>
       <c r="AB4" t="n">
-        <v>560.4173949687337</v>
+        <v>679.9178348254603</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.9319453436709</v>
+        <v>615.0274309403922</v>
       </c>
       <c r="AD4" t="n">
-        <v>409588.7481278076</v>
+        <v>496927.2854413575</v>
       </c>
       <c r="AE4" t="n">
-        <v>560417.3949687337</v>
+        <v>679917.8348254603</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.288445919807588e-06</v>
+        <v>2.301714607168414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>506931.9453436709</v>
+        <v>615027.4309403922</v>
       </c>
     </row>
     <row r="5">
@@ -47628,28 +47628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>397.0334777205079</v>
+        <v>484.3720150340577</v>
       </c>
       <c r="AB5" t="n">
-        <v>543.238720098028</v>
+        <v>662.7391599547547</v>
       </c>
       <c r="AC5" t="n">
-        <v>491.3927790922037</v>
+        <v>599.488264688925</v>
       </c>
       <c r="AD5" t="n">
-        <v>397033.4777205079</v>
+        <v>484372.0150340577</v>
       </c>
       <c r="AE5" t="n">
-        <v>543238.720098028</v>
+        <v>662739.1599547546</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.320871519499733e-06</v>
+        <v>2.35964057465392e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.52777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>491392.7790922037</v>
+        <v>599488.264688925</v>
       </c>
     </row>
     <row r="6">
@@ -47734,28 +47734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>387.5834875843137</v>
+        <v>465.2083501655122</v>
       </c>
       <c r="AB6" t="n">
-        <v>530.308826689546</v>
+        <v>636.5185882403848</v>
       </c>
       <c r="AC6" t="n">
-        <v>479.6968965634078</v>
+        <v>575.7701475381712</v>
       </c>
       <c r="AD6" t="n">
-        <v>387583.4875843137</v>
+        <v>465208.3501655122</v>
       </c>
       <c r="AE6" t="n">
-        <v>530308.826689546</v>
+        <v>636518.5882403848</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34119726391498e-06</v>
+        <v>2.39595103371388e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>479696.8965634078</v>
+        <v>575770.1475381711</v>
       </c>
     </row>
     <row r="7">
@@ -47840,28 +47840,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>378.987545406378</v>
+        <v>456.6124079875764</v>
       </c>
       <c r="AB7" t="n">
-        <v>518.5474793754898</v>
+        <v>624.7572409263288</v>
       </c>
       <c r="AC7" t="n">
-        <v>469.0580357298506</v>
+        <v>565.131286704614</v>
       </c>
       <c r="AD7" t="n">
-        <v>378987.545406378</v>
+        <v>456612.4079875764</v>
       </c>
       <c r="AE7" t="n">
-        <v>518547.4793754899</v>
+        <v>624757.2409263288</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.35654219472352e-06</v>
+        <v>2.423363632756671e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH7" t="n">
-        <v>469058.0357298506</v>
+        <v>565131.2867046141</v>
       </c>
     </row>
     <row r="8">
@@ -47946,28 +47946,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>373.1521258009425</v>
+        <v>450.776988382141</v>
       </c>
       <c r="AB8" t="n">
-        <v>510.5632008307894</v>
+        <v>616.7729623816282</v>
       </c>
       <c r="AC8" t="n">
-        <v>461.8357655234509</v>
+        <v>557.9090164982143</v>
       </c>
       <c r="AD8" t="n">
-        <v>373152.1258009425</v>
+        <v>450776.988382141</v>
       </c>
       <c r="AE8" t="n">
-        <v>510563.2008307893</v>
+        <v>616772.9623816282</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.363887637012198e-06</v>
+        <v>2.436485729347647e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.00694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>461835.7655234509</v>
+        <v>557909.0164982143</v>
       </c>
     </row>
     <row r="9">
@@ -48052,28 +48052,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>355.2583524447803</v>
+        <v>442.5115489037584</v>
       </c>
       <c r="AB9" t="n">
-        <v>486.080150707322</v>
+        <v>605.463823441851</v>
       </c>
       <c r="AC9" t="n">
-        <v>439.6893433415907</v>
+        <v>547.6792059063731</v>
       </c>
       <c r="AD9" t="n">
-        <v>355258.3524447803</v>
+        <v>442511.5489037584</v>
       </c>
       <c r="AE9" t="n">
-        <v>486080.1507073221</v>
+        <v>605463.823441851</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.374729711075282e-06</v>
+        <v>2.455854303425422e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>439689.3433415907</v>
+        <v>547679.2059063731</v>
       </c>
     </row>
     <row r="10">
@@ -48158,28 +48158,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>351.4840291676745</v>
+        <v>438.7372256266526</v>
       </c>
       <c r="AB10" t="n">
-        <v>480.9159550881947</v>
+        <v>600.2996278227234</v>
       </c>
       <c r="AC10" t="n">
-        <v>435.0180113043588</v>
+        <v>543.0078738691412</v>
       </c>
       <c r="AD10" t="n">
-        <v>351484.0291676745</v>
+        <v>438737.2256266526</v>
       </c>
       <c r="AE10" t="n">
-        <v>480915.9550881947</v>
+        <v>600299.6278227235</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.377069184132977e-06</v>
+        <v>2.460033601312273e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>435018.0113043588</v>
+        <v>543007.8738691412</v>
       </c>
     </row>
     <row r="11">
@@ -48264,28 +48264,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>349.5248260816599</v>
+        <v>427.2349400088789</v>
       </c>
       <c r="AB11" t="n">
-        <v>478.2352869919696</v>
+        <v>584.5616931954578</v>
       </c>
       <c r="AC11" t="n">
-        <v>432.593182408896</v>
+        <v>528.7719456343716</v>
       </c>
       <c r="AD11" t="n">
-        <v>349524.8260816599</v>
+        <v>427234.9400088789</v>
       </c>
       <c r="AE11" t="n">
-        <v>478235.2869919696</v>
+        <v>584561.6931954578</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.381068928392908e-06</v>
+        <v>2.467178852538182e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>432593.182408896</v>
+        <v>528771.9456343716</v>
       </c>
     </row>
   </sheetData>
